--- a/tumlknexpectimax/excel_data/opex_calc.xlsx
+++ b/tumlknexpectimax/excel_data/opex_calc.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmadzay\LRZ Sync+Share\PycharmProjects\mt_branch_new_code\tumlknexpectimax\tumlknexpectimax\excel_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="27792" windowHeight="14112" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="165" windowWidth="27795" windowHeight="14055"/>
   </bookViews>
   <sheets>
     <sheet name="FTTC_GPON_25_PIVOT" sheetId="4" r:id="rId1"/>
@@ -28,7 +23,7 @@
     <sheet name="FTTB_Hybridpon_100" sheetId="15" r:id="rId14"/>
     <sheet name="OPEX" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId16"/>
   </pivotCaches>
@@ -380,8 +375,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +417,25 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -594,7 +608,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -625,10 +639,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -683,7 +698,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -717,7 +731,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -751,7 +764,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -826,192 +838,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1179,7 +1005,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1205,7 +1030,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1231,7 +1055,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1257,13 +1080,189 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right/>
         <top style="thin">
           <color theme="5"/>
@@ -1285,7 +1284,847 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1313,7 +2152,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1343,7 +2181,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1373,7 +2210,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1405,7 +2241,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1585,7 +2420,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1611,87 +2445,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1719,18 +2472,15 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="5"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1747,7 +2497,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1777,217 +2526,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -2013,11 +2551,39 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
         <right/>
         <top style="thin">
           <color theme="5"/>
@@ -2039,10 +2605,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -2050,7 +2615,11 @@
         <top style="thin">
           <color theme="5"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2067,7 +2636,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2097,7 +2665,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2127,7 +2694,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2157,7 +2723,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2176,158 +2741,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2341,103 +2754,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2471,7 +2787,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2505,7 +2820,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2541,7 +2855,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2569,133 +2882,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2723,7 +2909,33 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2751,7 +2963,33 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2779,7 +3017,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2807,7 +3044,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2835,7 +3071,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2863,283 +3098,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -3175,7 +3133,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -3211,7 +3168,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -3247,7 +3203,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3277,11 +3233,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="43575296"/>
-        <c:axId val="105123776"/>
+        <c:axId val="93020544"/>
+        <c:axId val="93022080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43575296"/>
+        <c:axId val="93020544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3290,7 +3246,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105123776"/>
+        <c:crossAx val="93022080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3298,7 +3254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105123776"/>
+        <c:axId val="93022080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3309,13 +3265,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43575296"/>
+        <c:crossAx val="93020544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3331,7 +3288,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3429,48 +3386,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>17260</c:v>
+                  <c:v>7308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23074</c:v>
+                  <c:v>3074</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23869</c:v>
+                  <c:v>3869</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3869</c:v>
+                  <c:v>5936</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23074</c:v>
+                  <c:v>13074</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25936</c:v>
+                  <c:v>5936</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27314</c:v>
+                  <c:v>7314</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28280.799999999999</c:v>
+                  <c:v>16202.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24240</c:v>
+                  <c:v>4240</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8480</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41361.199999999997</c:v>
+                  <c:v>20377.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28480</c:v>
+                  <c:v>8480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B4F1-49F6-83ED-2665C470D7F5}"/>
             </c:ext>
@@ -3563,13 +3520,13 @@
                   <c:v>14871.900355200003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1724.3169983999999</c:v>
+                  <c:v>3279.3529536000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1724.3169983999999</c:v>
+                  <c:v>2489.7663590400002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17790.588565056001</c:v>
+                  <c:v>11115.468565056002</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>15946.915080960001</c:v>
@@ -3595,7 +3552,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-B4F1-49F6-83ED-2665C470D7F5}"/>
             </c:ext>
@@ -3688,10 +3645,10 @@
                   <c:v>20766.619334565716</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1646.5987759679997</c:v>
+                  <c:v>2263.0546533337124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2262.3544069657128</c:v>
+                  <c:v>2233.9824704598395</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>21331.706543720222</c:v>
@@ -3720,7 +3677,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-B4F1-49F6-83ED-2665C470D7F5}"/>
             </c:ext>
@@ -3804,48 +3761,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1358.4500945968914</c:v>
+                  <c:v>860.85009459689138</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2951.3314148312002</c:v>
+                  <c:v>1951.3314148312002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2975.3759844882861</c:v>
+                  <c:v>1975.3759844882859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>361.99578871839998</c:v>
+                  <c:v>470.57038034668568</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>392.78357026828564</c:v>
+                  <c:v>532.98744147499201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3109.8147554388111</c:v>
+                  <c:v>2276.0587554388112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3130.6635446429923</c:v>
+                  <c:v>2130.6635446429923</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3152.6914807682861</c:v>
+                  <c:v>2152.6914807682861</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2286.1708800678593</c:v>
+                  <c:v>1682.2708800678593</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3001.2442901880004</c:v>
+                  <c:v>2001.2442901880002</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>541.95602366962737</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3166.1453018054594</c:v>
+                  <c:v>2116.9453018054592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3236.0927196696271</c:v>
+                  <c:v>2236.0927196696271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-B4F1-49F6-83ED-2665C470D7F5}"/>
             </c:ext>
@@ -3929,48 +3886,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1901.830132435648</c:v>
+                  <c:v>1205.1901324356479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4131.863980763681</c:v>
+                  <c:v>2731.8639807636805</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4165.5263782836009</c:v>
+                  <c:v>2765.5263782836005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>506.79410420575999</c:v>
+                  <c:v>658.79853248536006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>549.89699837559988</c:v>
+                  <c:v>746.18241806498884</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4353.7406576143358</c:v>
+                  <c:v>3186.482257614336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4382.9289625001893</c:v>
+                  <c:v>2982.9289625001893</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4413.768073075601</c:v>
+                  <c:v>3013.7680730756006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3200.6392320950031</c:v>
+                  <c:v>2355.179232095003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4201.7420062632</c:v>
+                  <c:v>2801.7420062632004</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>758.73843313747841</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4432.6034225276435</c:v>
+                  <c:v>2963.7234225276429</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4530.5298075374785</c:v>
+                  <c:v>3130.5298075374781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-B4F1-49F6-83ED-2665C470D7F5}"/>
             </c:ext>
@@ -3986,11 +3943,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="468853760"/>
-        <c:axId val="468855072"/>
+        <c:axId val="187159296"/>
+        <c:axId val="187161216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="468853760"/>
+        <c:axId val="187159296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4022,6 +3979,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4030,26 +3988,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4088,7 +4026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468855072"/>
+        <c:crossAx val="187161216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4096,7 +4034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468855072"/>
+        <c:axId val="187161216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4156,6 +4094,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4164,26 +4103,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -4216,7 +4135,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468853760"/>
+        <c:crossAx val="187159296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4230,6 +4149,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4861,7 +4781,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4886,23 +4806,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>843915</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1242060</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>241935</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2AF6944-48DA-45D6-93A4-52064D7B7BB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2AF6944-48DA-45D6-93A4-52064D7B7BB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5416,7 +5336,7 @@
       <calculatedColumnFormula>Table2[[#This Row],[Floor Space per component]]*Table2[[#This Row],[Quantity]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="26" name="Rent per sqm per year"/>
-    <tableColumn id="27" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="19" dataCellStyle="Good">
+    <tableColumn id="27" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="110" dataCellStyle="Good">
       <calculatedColumnFormula>Table2[[#This Row],[Rent per sqm per year]]*Table2[[#This Row],[Total Floor Space]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table2[Total Rent cost per year])</totalsRowFormula>
     </tableColumn>
@@ -5430,7 +5350,7 @@
     <tableColumn id="10" name="CU/kWh">
       <calculatedColumnFormula>0.3048/50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Energy Cost per year in CU" totalsRowFunction="custom" totalsRowDxfId="18" dataCellStyle="Good">
+    <tableColumn id="11" name="Energy Cost per year in CU" totalsRowFunction="custom" totalsRowDxfId="109" dataCellStyle="Good">
       <calculatedColumnFormula>Table2[[#This Row],[Yearly Energy Consumption in kWh]]*Table2[[#This Row],[CU/kWh]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table2[Energy Cost per year in CU])</totalsRowFormula>
     </tableColumn>
@@ -5449,7 +5369,7 @@
     <tableColumn id="18" name="Cost per hour">
       <calculatedColumnFormula>190/50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="FM Cost" totalsRowFunction="custom" totalsRowDxfId="17" dataCellStyle="Good">
+    <tableColumn id="19" name="FM Cost" totalsRowFunction="custom" totalsRowDxfId="108" dataCellStyle="Good">
       <calculatedColumnFormula>Table2[[#This Row],[Cost per hour]]*Table2[[#This Row],[Total Time to Repair(h)]]*Table2[[#This Row],[Failures per year]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table2[FM Cost])+L20</totalsRowFormula>
     </tableColumn>
@@ -5470,44 +5390,44 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table19" displayName="Table19" ref="B1:W11" totalsRowCount="1">
   <autoFilter ref="B1:W10"/>
   <tableColumns count="22">
-    <tableColumn id="1" name="Component Name" dataDxfId="126" totalsRowDxfId="123"/>
-    <tableColumn id="2" name="Cost per Unit (OASE)" dataDxfId="125" totalsRowDxfId="122"/>
-    <tableColumn id="3" name="Quantity" dataDxfId="124" totalsRowDxfId="121"/>
-    <tableColumn id="4" name="Floor Space per component" totalsRowDxfId="120"/>
-    <tableColumn id="5" name="Total Floor Space" totalsRowDxfId="119">
+    <tableColumn id="1" name="Component Name" dataDxfId="152" totalsRowDxfId="81"/>
+    <tableColumn id="2" name="Cost per Unit (OASE)" dataDxfId="151" totalsRowDxfId="80"/>
+    <tableColumn id="3" name="Quantity" dataDxfId="150" totalsRowDxfId="79"/>
+    <tableColumn id="4" name="Floor Space per component" totalsRowDxfId="78"/>
+    <tableColumn id="5" name="Total Floor Space" totalsRowDxfId="77">
       <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rent per sqm per year" totalsRowDxfId="118"/>
-    <tableColumn id="7" name="Total Rent cost per year" totalsRowFunction="sum" totalsRowDxfId="117">
+    <tableColumn id="6" name="Rent per sqm per year" totalsRowDxfId="76"/>
+    <tableColumn id="7" name="Total Rent cost per year" totalsRowFunction="sum" totalsRowDxfId="75">
       <calculatedColumnFormula>G2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Installation Time in hours" totalsRowDxfId="116"/>
-    <tableColumn id="9" name="MTTR" totalsRowDxfId="115"/>
-    <tableColumn id="10" name="FIT" totalsRowDxfId="114"/>
-    <tableColumn id="11" name="Energy consumption in W" totalsRowDxfId="113"/>
-    <tableColumn id="12" name="Yearly Energy Consumption in kWh" totalsRowDxfId="112">
+    <tableColumn id="8" name="Installation Time in hours" totalsRowDxfId="74"/>
+    <tableColumn id="9" name="MTTR" totalsRowDxfId="73"/>
+    <tableColumn id="10" name="FIT" totalsRowDxfId="72"/>
+    <tableColumn id="11" name="Energy consumption in W" totalsRowDxfId="71"/>
+    <tableColumn id="12" name="Yearly Energy Consumption in kWh" totalsRowDxfId="70">
       <calculatedColumnFormula>Table19[[#This Row],[Energy consumption in W]]*24*365/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="CU/kWh" totalsRowDxfId="111">
+    <tableColumn id="13" name="CU/kWh" totalsRowDxfId="69">
       <calculatedColumnFormula>0.3048/50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="110">
+    <tableColumn id="14" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="68">
       <calculatedColumnFormula>Table19[[#This Row],[Yearly Energy Consumption in kWh]]*Table19[[#This Row],[CU/kWh]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Mean dist in km from CO" totalsRowDxfId="109"/>
-    <tableColumn id="16" name="Avg Travel Speed" totalsRowDxfId="108"/>
-    <tableColumn id="17" name="Failures per year" totalsRowDxfId="107">
+    <tableColumn id="15" name="Mean dist in km from CO" totalsRowDxfId="67"/>
+    <tableColumn id="16" name="Avg Travel Speed" totalsRowDxfId="66"/>
+    <tableColumn id="17" name="Failures per year" totalsRowDxfId="65">
       <calculatedColumnFormula>Table19[[#This Row],[Quantity]]*Table19[[#This Row],[FIT]]*24*365/1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Twice Travel Time" totalsRowDxfId="106">
+    <tableColumn id="18" name="Twice Travel Time" totalsRowDxfId="64">
       <calculatedColumnFormula>2*Table19[[#This Row],[Mean dist in km from CO]]/Table19[[#This Row],[Avg Travel Speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Total Time to Repair(h)" totalsRowDxfId="105">
+    <tableColumn id="19" name="Total Time to Repair(h)" totalsRowDxfId="63">
       <calculatedColumnFormula>Table19[[#This Row],[MTTR]]+Table19[[#This Row],[Twice Travel Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="No. Of technicians" totalsRowDxfId="104"/>
-    <tableColumn id="21" name="Cost per hour" totalsRowDxfId="103"/>
-    <tableColumn id="22" name="FM Cost" totalsRowFunction="custom" totalsRowDxfId="102">
+    <tableColumn id="20" name="No. Of technicians" totalsRowDxfId="62"/>
+    <tableColumn id="21" name="Cost per hour" totalsRowDxfId="61"/>
+    <tableColumn id="22" name="FM Cost" totalsRowFunction="custom" totalsRowDxfId="60">
       <calculatedColumnFormula>Table19[[#This Row],[Cost per hour]]*Table19[[#This Row],[No. Of technicians]]*Table19[[#This Row],[Total Time to Repair(h)]]*Table19[[#This Row],[Failures per year]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table19[FM Cost])</totalsRowFormula>
     </tableColumn>
@@ -5597,46 +5517,46 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:W10" totalsRowCount="1">
   <autoFilter ref="A1:W9"/>
   <tableColumns count="23">
-    <tableColumn id="1" name="Position of component" dataDxfId="101" totalsRowDxfId="97"/>
-    <tableColumn id="2" name="Component Name" dataDxfId="100" totalsRowDxfId="96"/>
-    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="99" totalsRowDxfId="95"/>
-    <tableColumn id="4" name="Quantity" dataDxfId="98" totalsRowDxfId="94"/>
-    <tableColumn id="5" name="Floor Space per component" totalsRowDxfId="93"/>
-    <tableColumn id="6" name="Total Floor Space" totalsRowDxfId="92">
+    <tableColumn id="1" name="Position of component" dataDxfId="149" totalsRowDxfId="59"/>
+    <tableColumn id="2" name="Component Name" dataDxfId="148" totalsRowDxfId="58"/>
+    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="147" totalsRowDxfId="57"/>
+    <tableColumn id="4" name="Quantity" dataDxfId="146" totalsRowDxfId="56"/>
+    <tableColumn id="5" name="Floor Space per component" totalsRowDxfId="55"/>
+    <tableColumn id="6" name="Total Floor Space" totalsRowDxfId="54">
       <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Rent per sqm per year" totalsRowDxfId="91"/>
-    <tableColumn id="8" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="90">
+    <tableColumn id="7" name="Rent per sqm per year" totalsRowDxfId="53"/>
+    <tableColumn id="8" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="52">
       <calculatedColumnFormula>Table10[[#This Row],[Total Floor Space]]*Table10[[#This Row],[Rent per sqm per year]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table10[Total Rent cost per year])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="Installation Time in hours" totalsRowDxfId="89"/>
-    <tableColumn id="10" name="MTTR" totalsRowDxfId="88"/>
-    <tableColumn id="11" name="FIT" totalsRowDxfId="87"/>
-    <tableColumn id="12" name="Energy consumption in W" totalsRowDxfId="86"/>
-    <tableColumn id="13" name="Yearly Energy Consumption in kWh" totalsRowDxfId="85">
+    <tableColumn id="9" name="Installation Time in hours" totalsRowDxfId="51"/>
+    <tableColumn id="10" name="MTTR" totalsRowDxfId="50"/>
+    <tableColumn id="11" name="FIT" totalsRowDxfId="49"/>
+    <tableColumn id="12" name="Energy consumption in W" totalsRowDxfId="48"/>
+    <tableColumn id="13" name="Yearly Energy Consumption in kWh" totalsRowDxfId="47">
       <calculatedColumnFormula>Table10[[#This Row],[Energy consumption in W]]*24*365/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="CU/kWh" totalsRowDxfId="84">
+    <tableColumn id="14" name="CU/kWh" totalsRowDxfId="46">
       <calculatedColumnFormula>0.3084/50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="83">
+    <tableColumn id="15" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="45">
       <calculatedColumnFormula>Table10[[#This Row],[Yearly Energy Consumption in kWh]]*Table10[[#This Row],[CU/kWh]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Mean dist in km from CO" totalsRowDxfId="82"/>
-    <tableColumn id="17" name="Avg Travel Speed" totalsRowDxfId="81"/>
-    <tableColumn id="18" name="Failures per year" totalsRowDxfId="80">
+    <tableColumn id="16" name="Mean dist in km from CO" totalsRowDxfId="44"/>
+    <tableColumn id="17" name="Avg Travel Speed" totalsRowDxfId="43"/>
+    <tableColumn id="18" name="Failures per year" totalsRowDxfId="42">
       <calculatedColumnFormula>Table10[[#This Row],[FIT]]*Table10[[#This Row],[Quantity]]*24*365/1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Twice Travel Time" totalsRowDxfId="79">
+    <tableColumn id="19" name="Twice Travel Time" totalsRowDxfId="41">
       <calculatedColumnFormula>2*Table10[[#This Row],[Mean dist in km from CO]]/Table10[[#This Row],[Avg Travel Speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Total Time to Repair(h)" totalsRowDxfId="78">
+    <tableColumn id="20" name="Total Time to Repair(h)" totalsRowDxfId="40">
       <calculatedColumnFormula>Table10[[#This Row],[MTTR]]+Table10[[#This Row],[Twice Travel Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="No. Of technicians" totalsRowDxfId="77"/>
-    <tableColumn id="22" name="Cost per hour" totalsRowDxfId="76"/>
-    <tableColumn id="23" name="FM Cost" totalsRowFunction="sum" totalsRowDxfId="75">
+    <tableColumn id="21" name="No. Of technicians" totalsRowDxfId="39"/>
+    <tableColumn id="22" name="Cost per hour" totalsRowDxfId="38"/>
+    <tableColumn id="23" name="FM Cost" totalsRowFunction="sum" totalsRowDxfId="37">
       <calculatedColumnFormula>Table10[[#This Row],[Failures per year]]*Table10[[#This Row],[Total Time to Repair(h)]]*Table10[[#This Row],[No. Of technicians]]*Table10[[#This Row],[Cost per hour]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5661,46 +5581,46 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1012" displayName="Table1012" ref="A1:W10" totalsRowCount="1">
   <autoFilter ref="A1:W9"/>
   <tableColumns count="23">
-    <tableColumn id="1" name="Position of component" dataDxfId="74" totalsRowDxfId="70"/>
-    <tableColumn id="2" name="Component Name" dataDxfId="71" totalsRowDxfId="69"/>
-    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="73" totalsRowDxfId="68"/>
-    <tableColumn id="4" name="Quantity" dataDxfId="72" totalsRowDxfId="67"/>
-    <tableColumn id="5" name="Floor Space per component" totalsRowDxfId="66"/>
-    <tableColumn id="6" name="Total Floor Space" totalsRowDxfId="65">
+    <tableColumn id="1" name="Position of component" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="2" name="Component Name" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="4" name="Quantity" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="5" name="Floor Space per component" totalsRowDxfId="137"/>
+    <tableColumn id="6" name="Total Floor Space" totalsRowDxfId="136">
       <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Rent per sqm per year" totalsRowDxfId="64"/>
-    <tableColumn id="8" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="63">
+    <tableColumn id="7" name="Rent per sqm per year" totalsRowDxfId="135"/>
+    <tableColumn id="8" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="134">
       <calculatedColumnFormula>Table1012[[#This Row],[Total Floor Space]]*Table1012[[#This Row],[Rent per sqm per year]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1012[Total Rent cost per year])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="Installation Time in hours" totalsRowDxfId="62"/>
-    <tableColumn id="10" name="MTTR" totalsRowDxfId="61"/>
-    <tableColumn id="11" name="FIT" totalsRowDxfId="60"/>
-    <tableColumn id="12" name="Energy consumption in W" totalsRowDxfId="59"/>
-    <tableColumn id="13" name="Yearly Energy Consumption in kWh" totalsRowDxfId="58">
+    <tableColumn id="9" name="Installation Time in hours" totalsRowDxfId="133"/>
+    <tableColumn id="10" name="MTTR" totalsRowDxfId="132"/>
+    <tableColumn id="11" name="FIT" totalsRowDxfId="131"/>
+    <tableColumn id="12" name="Energy consumption in W" totalsRowDxfId="130"/>
+    <tableColumn id="13" name="Yearly Energy Consumption in kWh" totalsRowDxfId="129">
       <calculatedColumnFormula>Table1012[[#This Row],[Energy consumption in W]]*24*365/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="CU/kWh" totalsRowDxfId="57">
+    <tableColumn id="14" name="CU/kWh" totalsRowDxfId="128">
       <calculatedColumnFormula>0.3084/50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="56">
+    <tableColumn id="15" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="127">
       <calculatedColumnFormula>Table1012[[#This Row],[Yearly Energy Consumption in kWh]]*Table1012[[#This Row],[CU/kWh]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Mean dist in km from CO" totalsRowDxfId="55"/>
-    <tableColumn id="17" name="Avg Travel Speed" totalsRowDxfId="54"/>
-    <tableColumn id="18" name="Failures per year" totalsRowDxfId="53">
+    <tableColumn id="16" name="Mean dist in km from CO" totalsRowDxfId="126"/>
+    <tableColumn id="17" name="Avg Travel Speed" totalsRowDxfId="125"/>
+    <tableColumn id="18" name="Failures per year" totalsRowDxfId="124">
       <calculatedColumnFormula>Table1012[[#This Row],[FIT]]*Table1012[[#This Row],[Quantity]]*24*365/1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Twice Travel Time" totalsRowDxfId="52">
+    <tableColumn id="19" name="Twice Travel Time" totalsRowDxfId="123">
       <calculatedColumnFormula>2*Table1012[[#This Row],[Mean dist in km from CO]]/Table1012[[#This Row],[Avg Travel Speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Total Time to Repair(h)" totalsRowDxfId="51">
+    <tableColumn id="20" name="Total Time to Repair(h)" totalsRowDxfId="122">
       <calculatedColumnFormula>Table1012[[#This Row],[MTTR]]+Table1012[[#This Row],[Twice Travel Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="No. Of technicians" totalsRowDxfId="50"/>
-    <tableColumn id="22" name="Cost per hour" totalsRowDxfId="49"/>
-    <tableColumn id="23" name="FM Cost" totalsRowFunction="sum" totalsRowDxfId="48">
+    <tableColumn id="21" name="No. Of technicians" totalsRowDxfId="121"/>
+    <tableColumn id="22" name="Cost per hour" totalsRowDxfId="120"/>
+    <tableColumn id="23" name="FM Cost" totalsRowFunction="sum" totalsRowDxfId="119">
       <calculatedColumnFormula>Table1012[[#This Row],[Failures per year]]*Table1012[[#This Row],[Total Time to Repair(h)]]*Table1012[[#This Row],[No. Of technicians]]*Table1012[[#This Row],[Cost per hour]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5728,7 +5648,7 @@
     <tableColumn id="1" name="Position of component"/>
     <tableColumn id="2" name="Component Name"/>
     <tableColumn id="3" name="Cost per Unit (OASE)"/>
-    <tableColumn id="4" name="Quantity" dataDxfId="47"/>
+    <tableColumn id="4" name="Quantity" dataDxfId="118"/>
     <tableColumn id="5" name="Floor Space per component"/>
     <tableColumn id="6" name="Total Floor Space">
       <calculatedColumnFormula>Table913[[#This Row],[Floor Space per component]]*Table913[[#This Row],[Quantity]]</calculatedColumnFormula>
@@ -5846,46 +5766,46 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1014" displayName="Table1014" ref="A1:W10" totalsRowCount="1">
   <autoFilter ref="A1:W9"/>
   <tableColumns count="23">
-    <tableColumn id="1" name="Position of component" dataDxfId="46" totalsRowDxfId="42"/>
-    <tableColumn id="2" name="Component Name" dataDxfId="45" totalsRowDxfId="41"/>
-    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="44" totalsRowDxfId="40"/>
-    <tableColumn id="4" name="Quantity" dataDxfId="43" totalsRowDxfId="39"/>
-    <tableColumn id="5" name="Floor Space per component" totalsRowDxfId="38"/>
-    <tableColumn id="6" name="Total Floor Space" totalsRowDxfId="37">
+    <tableColumn id="1" name="Position of component" dataDxfId="117" totalsRowDxfId="36"/>
+    <tableColumn id="2" name="Component Name" dataDxfId="116" totalsRowDxfId="35"/>
+    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="115" totalsRowDxfId="34"/>
+    <tableColumn id="4" name="Quantity" dataDxfId="114" totalsRowDxfId="33"/>
+    <tableColumn id="5" name="Floor Space per component" totalsRowDxfId="32"/>
+    <tableColumn id="6" name="Total Floor Space" totalsRowDxfId="31">
       <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Rent per sqm per year" totalsRowDxfId="36"/>
-    <tableColumn id="8" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="35">
+    <tableColumn id="7" name="Rent per sqm per year" totalsRowDxfId="30"/>
+    <tableColumn id="8" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="29">
       <calculatedColumnFormula>Table1014[[#This Row],[Total Floor Space]]*Table1014[[#This Row],[Rent per sqm per year]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1014[Total Rent cost per year])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="Installation Time in hours" totalsRowDxfId="34"/>
-    <tableColumn id="10" name="MTTR" totalsRowDxfId="33"/>
-    <tableColumn id="11" name="FIT" totalsRowDxfId="32"/>
-    <tableColumn id="12" name="Energy consumption in W" totalsRowDxfId="31"/>
-    <tableColumn id="13" name="Yearly Energy Consumption in kWh" totalsRowDxfId="30">
+    <tableColumn id="9" name="Installation Time in hours" totalsRowDxfId="28"/>
+    <tableColumn id="10" name="MTTR" totalsRowDxfId="27"/>
+    <tableColumn id="11" name="FIT" totalsRowDxfId="26"/>
+    <tableColumn id="12" name="Energy consumption in W" totalsRowDxfId="25"/>
+    <tableColumn id="13" name="Yearly Energy Consumption in kWh" totalsRowDxfId="24">
       <calculatedColumnFormula>Table1014[[#This Row],[Energy consumption in W]]*24*365/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="CU/kWh" totalsRowDxfId="29">
+    <tableColumn id="14" name="CU/kWh" totalsRowDxfId="23">
       <calculatedColumnFormula>0.3084/50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="28">
+    <tableColumn id="15" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="22">
       <calculatedColumnFormula>Table1014[[#This Row],[Yearly Energy Consumption in kWh]]*Table1014[[#This Row],[CU/kWh]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Mean dist in km from CO" totalsRowDxfId="27"/>
-    <tableColumn id="17" name="Avg Travel Speed" totalsRowDxfId="26"/>
-    <tableColumn id="18" name="Failures per year" totalsRowDxfId="25">
+    <tableColumn id="16" name="Mean dist in km from CO" totalsRowDxfId="21"/>
+    <tableColumn id="17" name="Avg Travel Speed" totalsRowDxfId="20"/>
+    <tableColumn id="18" name="Failures per year" totalsRowDxfId="19">
       <calculatedColumnFormula>Table1014[[#This Row],[FIT]]*Table1014[[#This Row],[Quantity]]*24*365/1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Twice Travel Time" totalsRowDxfId="24">
+    <tableColumn id="19" name="Twice Travel Time" totalsRowDxfId="18">
       <calculatedColumnFormula>2*Table1014[[#This Row],[Mean dist in km from CO]]/Table1014[[#This Row],[Avg Travel Speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Total Time to Repair(h)" totalsRowDxfId="23">
+    <tableColumn id="20" name="Total Time to Repair(h)" totalsRowDxfId="17">
       <calculatedColumnFormula>Table1014[[#This Row],[MTTR]]+Table1014[[#This Row],[Twice Travel Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="No. Of technicians" totalsRowDxfId="22"/>
-    <tableColumn id="22" name="Cost per hour" totalsRowDxfId="21"/>
-    <tableColumn id="23" name="FM Cost" totalsRowFunction="sum" totalsRowDxfId="20">
+    <tableColumn id="21" name="No. Of technicians" totalsRowDxfId="16"/>
+    <tableColumn id="22" name="Cost per hour" totalsRowDxfId="15"/>
+    <tableColumn id="23" name="FM Cost" totalsRowFunction="sum" totalsRowDxfId="14">
       <calculatedColumnFormula>Table1014[[#This Row],[Failures per year]]*Table1014[[#This Row],[Total Time to Repair(h)]]*Table1014[[#This Row],[No. Of technicians]]*Table1014[[#This Row],[Cost per hour]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5919,9 +5839,9 @@
     <tableColumn id="5" name="FTTH_DWDM_100" totalsRowFunction="sum" totalsRowDxfId="9"/>
     <tableColumn id="6" name="FTTH_XGPON_100" totalsRowFunction="sum" totalsRowDxfId="8"/>
     <tableColumn id="7" name="FTTC_GPON_100" totalsRowFunction="sum" totalsRowDxfId="7"/>
-    <tableColumn id="8" name="FTTB_XGPON_100" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="6"/>
-    <tableColumn id="9" name="FTTB_DWDM_100" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5"/>
-    <tableColumn id="10" name="FTTC_Hybridpon_25" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4"/>
+    <tableColumn id="8" name="FTTB_XGPON_100" totalsRowFunction="sum" dataDxfId="113" totalsRowDxfId="6"/>
+    <tableColumn id="9" name="FTTB_DWDM_100" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="5"/>
+    <tableColumn id="10" name="FTTC_Hybridpon_25" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="4"/>
     <tableColumn id="11" name="FTTB_Hybridpon_50" totalsRowFunction="sum" totalsRowDxfId="3"/>
     <tableColumn id="12" name="FTTH_Hybridpon_100" totalsRowFunction="sum" totalsRowDxfId="2"/>
     <tableColumn id="13" name="FTTC_Hybridpon_100" totalsRowFunction="sum" totalsRowDxfId="1"/>
@@ -5935,44 +5855,44 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:W11" totalsRowCount="1">
   <autoFilter ref="B1:W10"/>
   <tableColumns count="22">
-    <tableColumn id="1" name="Component Name" dataDxfId="164" totalsRowDxfId="161"/>
-    <tableColumn id="2" name="Cost per Unit (OASE)" dataDxfId="163" totalsRowDxfId="160"/>
-    <tableColumn id="3" name="Quantity" dataDxfId="162" totalsRowDxfId="159"/>
-    <tableColumn id="4" name="Floor Space per component" totalsRowDxfId="158"/>
-    <tableColumn id="5" name="Total Floor Space" totalsRowDxfId="157">
+    <tableColumn id="1" name="Component Name" dataDxfId="164" totalsRowDxfId="107"/>
+    <tableColumn id="2" name="Cost per Unit (OASE)" dataDxfId="163" totalsRowDxfId="106"/>
+    <tableColumn id="3" name="Quantity" dataDxfId="162" totalsRowDxfId="105"/>
+    <tableColumn id="4" name="Floor Space per component" totalsRowDxfId="104"/>
+    <tableColumn id="5" name="Total Floor Space" totalsRowDxfId="103">
       <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rent per sqm per year" totalsRowDxfId="156"/>
-    <tableColumn id="7" name="Total Rent cost per year" totalsRowFunction="sum" totalsRowDxfId="140">
+    <tableColumn id="6" name="Rent per sqm per year" totalsRowDxfId="102"/>
+    <tableColumn id="7" name="Total Rent cost per year" totalsRowFunction="sum" totalsRowDxfId="101">
       <calculatedColumnFormula>G2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Installation Time in hours" totalsRowDxfId="155"/>
-    <tableColumn id="9" name="MTTR" totalsRowDxfId="154"/>
-    <tableColumn id="10" name="FIT" totalsRowDxfId="153"/>
-    <tableColumn id="11" name="Energy consumption in W" totalsRowDxfId="152"/>
-    <tableColumn id="12" name="Yearly Energy Consumption in kWh" totalsRowDxfId="151">
+    <tableColumn id="8" name="Installation Time in hours" totalsRowDxfId="100"/>
+    <tableColumn id="9" name="MTTR" totalsRowDxfId="99"/>
+    <tableColumn id="10" name="FIT" totalsRowDxfId="98"/>
+    <tableColumn id="11" name="Energy consumption in W" totalsRowDxfId="97"/>
+    <tableColumn id="12" name="Yearly Energy Consumption in kWh" totalsRowDxfId="96">
       <calculatedColumnFormula>Table1[[#This Row],[Energy consumption in W]]*24*365/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="CU/kWh" totalsRowDxfId="150">
+    <tableColumn id="13" name="CU/kWh" totalsRowDxfId="95">
       <calculatedColumnFormula>0.3048/50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="141">
+    <tableColumn id="14" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="94">
       <calculatedColumnFormula>Table1[[#This Row],[Yearly Energy Consumption in kWh]]*Table1[[#This Row],[CU/kWh]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Mean dist in km from CO" totalsRowDxfId="149"/>
-    <tableColumn id="16" name="Avg Travel Speed" totalsRowDxfId="148"/>
-    <tableColumn id="17" name="Failures per year" totalsRowDxfId="147">
+    <tableColumn id="15" name="Mean dist in km from CO" totalsRowDxfId="93"/>
+    <tableColumn id="16" name="Avg Travel Speed" totalsRowDxfId="92"/>
+    <tableColumn id="17" name="Failures per year" totalsRowDxfId="91">
       <calculatedColumnFormula>Table1[[#This Row],[Quantity]]*Table1[[#This Row],[FIT]]*24*365/1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Twice Travel Time" totalsRowDxfId="146">
+    <tableColumn id="18" name="Twice Travel Time" totalsRowDxfId="90">
       <calculatedColumnFormula>2*Table1[[#This Row],[Mean dist in km from CO]]/Table1[[#This Row],[Avg Travel Speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Total Time to Repair(h)" totalsRowDxfId="145">
+    <tableColumn id="19" name="Total Time to Repair(h)" totalsRowDxfId="89">
       <calculatedColumnFormula>Table1[[#This Row],[MTTR]]+Table1[[#This Row],[Twice Travel Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="No. Of technicians" totalsRowDxfId="144"/>
-    <tableColumn id="21" name="Cost per hour" totalsRowDxfId="143"/>
-    <tableColumn id="22" name="FM Cost" totalsRowFunction="custom" totalsRowDxfId="142">
+    <tableColumn id="20" name="No. Of technicians" totalsRowDxfId="88"/>
+    <tableColumn id="21" name="Cost per hour" totalsRowDxfId="87"/>
+    <tableColumn id="22" name="FM Cost" totalsRowFunction="custom" totalsRowDxfId="86">
       <calculatedColumnFormula>Table1[[#This Row],[Cost per hour]]*Table1[[#This Row],[No. Of technicians]]*Table1[[#This Row],[Total Time to Repair(h)]]*Table1[[#This Row],[Failures per year]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[FM Cost])</totalsRowFormula>
     </tableColumn>
@@ -5986,9 +5906,9 @@
   <autoFilter ref="A1:W10"/>
   <tableColumns count="23">
     <tableColumn id="1" name="Position of component"/>
-    <tableColumn id="2" name="Component Name" dataDxfId="138"/>
+    <tableColumn id="2" name="Component Name" dataDxfId="161"/>
     <tableColumn id="3" name="Cost per Unit (OASE)"/>
-    <tableColumn id="4" name="Quantity" dataDxfId="139"/>
+    <tableColumn id="4" name="Quantity" dataDxfId="160"/>
     <tableColumn id="5" name="Floor Space per component"/>
     <tableColumn id="6" name="Total Floor Space"/>
     <tableColumn id="7" name="Rent per sqm per year"/>
@@ -6035,9 +5955,9 @@
   <autoFilter ref="A1:AA10"/>
   <tableColumns count="27">
     <tableColumn id="1" name="Position of component"/>
-    <tableColumn id="2" name="Component Name" dataDxfId="136"/>
+    <tableColumn id="2" name="Component Name" dataDxfId="159"/>
     <tableColumn id="3" name="Cost per Unit (OASE)"/>
-    <tableColumn id="4" name="Quantity" dataDxfId="137"/>
+    <tableColumn id="4" name="Quantity" dataDxfId="158"/>
     <tableColumn id="5" name="Floor Space per component"/>
     <tableColumn id="6" name="Total Floor Space">
       <calculatedColumnFormula>Table36[[#This Row],[Floor Space per component]]*Table36[[#This Row],[Quantity]]</calculatedColumnFormula>
@@ -6094,15 +6014,15 @@
   <autoFilter ref="A1:AA10"/>
   <tableColumns count="27">
     <tableColumn id="1" name="Position of component"/>
-    <tableColumn id="2" name="Component Name" dataDxfId="135" totalsRowDxfId="132"/>
-    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="134"/>
-    <tableColumn id="4" name="Quantity" dataDxfId="133"/>
+    <tableColumn id="2" name="Component Name" dataDxfId="157" totalsRowDxfId="85"/>
+    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="156"/>
+    <tableColumn id="4" name="Quantity" dataDxfId="155"/>
     <tableColumn id="24" name="Floor Space per component"/>
     <tableColumn id="25" name="Total Floor Space">
       <calculatedColumnFormula>Table27[[#This Row],[Floor Space per component]]*Table27[[#This Row],[Quantity]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="26" name="Rent per sqm per year"/>
-    <tableColumn id="27" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="131" dataCellStyle="Good">
+    <tableColumn id="27" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="84" dataCellStyle="Good">
       <calculatedColumnFormula>Table27[[#This Row],[Rent per sqm per year]]*Table27[[#This Row],[Total Floor Space]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table27[Total Rent cost per year])</totalsRowFormula>
     </tableColumn>
@@ -6116,7 +6036,7 @@
     <tableColumn id="10" name="CU/kWh">
       <calculatedColumnFormula>0.3048/50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Energy Cost per year in CU" totalsRowFunction="custom" totalsRowDxfId="130" dataCellStyle="Good">
+    <tableColumn id="11" name="Energy Cost per year in CU" totalsRowFunction="custom" totalsRowDxfId="83" dataCellStyle="Good">
       <calculatedColumnFormula>Table27[[#This Row],[Yearly Energy Consumption in kWh]]*Table27[[#This Row],[CU/kWh]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table27[Energy Cost per year in CU])</totalsRowFormula>
     </tableColumn>
@@ -6135,7 +6055,7 @@
     <tableColumn id="18" name="Cost per hour">
       <calculatedColumnFormula>190/50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="FM Cost" totalsRowFunction="custom" totalsRowDxfId="129" dataCellStyle="Good">
+    <tableColumn id="19" name="FM Cost" totalsRowFunction="custom" totalsRowDxfId="82" dataCellStyle="Good">
       <calculatedColumnFormula>Table27[[#This Row],[Cost per hour]]*Table27[[#This Row],[Total Time to Repair(h)]]*Table27[[#This Row],[Failures per year]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table27[FM Cost])+L20</totalsRowFormula>
     </tableColumn>
@@ -6169,8 +6089,8 @@
   <tableColumns count="27">
     <tableColumn id="1" name="Position of component"/>
     <tableColumn id="2" name="Component Name"/>
-    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="128"/>
-    <tableColumn id="4" name="Quantity" dataDxfId="127"/>
+    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="154"/>
+    <tableColumn id="4" name="Quantity" dataDxfId="153"/>
     <tableColumn id="5" name="Floor Space per component"/>
     <tableColumn id="6" name="Total Floor Space">
       <calculatedColumnFormula>Table38[[#This Row],[Floor Space per component]]*Table38[[#This Row],[Quantity]]</calculatedColumnFormula>
@@ -6276,7 +6196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6309,26 +6229,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6361,23 +6264,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6556,21 +6442,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="5" width="31.44140625" customWidth="1"/>
-    <col min="6" max="12" width="14.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>55</v>
       </c>
@@ -6584,7 +6470,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -6598,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -6612,7 +6498,7 @@
         <v>27.469453823999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -6626,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -6640,7 +6526,7 @@
         <v>3872.9793853440005</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>56</v>
       </c>
@@ -6664,7 +6550,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6672,36 +6562,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P21" sqref="P21:P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="12" max="12" width="24.44140625" customWidth="1"/>
-    <col min="13" max="13" width="32.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" customWidth="1"/>
+    <col min="13" max="13" width="32.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="16" max="16" width="23.77734375" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" customWidth="1"/>
-    <col min="20" max="20" width="22.109375" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" customWidth="1"/>
     <col min="21" max="21" width="24" customWidth="1"/>
-    <col min="22" max="22" width="14.21875" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6772,7 +6662,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6854,7 +6744,7 @@
         <v>2.0452147199999997</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6936,7 +6826,7 @@
         <v>7.9891199999999996E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7017,7 +6907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7098,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -7179,7 +7069,7 @@
         <v>8.1222719999999984E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -7261,7 +7151,7 @@
         <v>2451.91086</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -7343,7 +7233,7 @@
         <v>95.907787776000006</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -7364,11 +7254,11 @@
         <v>1830</v>
       </c>
       <c r="G9" s="8">
-        <v>10.6</v>
+        <v>4</v>
       </c>
       <c r="H9" s="8">
         <f>Table9[[#This Row],[Total Floor Space]]*Table9[[#This Row],[Rent per sqm per year]]</f>
-        <v>19398</v>
+        <v>7320</v>
       </c>
       <c r="I9">
         <f>(0.5+1/6*16)*Table9[[#This Row],[Quantity]]</f>
@@ -7425,7 +7315,7 @@
         <v>7370.961839999999</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -7505,10 +7395,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H11">
         <f>SUM(Table9[Total Rent cost per year])</f>
-        <v>28280.799999999999</v>
+        <v>16202.8</v>
       </c>
       <c r="O11">
         <f>SUBTOTAL(109,Table9[Energy Cost per year in CU])</f>
@@ -7519,12 +7409,12 @@
         <v>9920.9868164159998</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
@@ -7557,10 +7447,10 @@
       </c>
       <c r="P16">
         <f>Table9[[#Totals],[Total Rent cost per year]]+Table9[[#Totals],[Energy Cost per year in CU]]+Table9[[#Totals],[FM Cost]]+J20</f>
-        <v>45723.417601357185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>33645.417601357185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -7597,7 +7487,7 @@
         <v>3.9404674007068903</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -7634,7 +7524,7 @@
         <v>106.76675718565343</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -7671,7 +7561,7 @@
         <v>177.97271715482123</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J20">
         <f>SUM(J17:J19)</f>
         <v>288.67994174118155</v>
@@ -7683,16 +7573,16 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O21" s="8" t="s">
         <v>94</v>
       </c>
       <c r="P21" s="8">
         <f>Table9[[#Totals],[Total Rent cost per year]]</f>
-        <v>28280.799999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>16202.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O22" s="8" t="s">
         <v>95</v>
       </c>
@@ -7701,7 +7591,7 @@
         <v>7232.9508432000002</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O23" s="8" t="s">
         <v>96</v>
       </c>
@@ -7710,41 +7600,45 @@
         <v>10209.666758157182</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O24" s="8" t="s">
         <v>97</v>
       </c>
       <c r="P24" s="8">
         <f>0.05*SUM(P21:P23)</f>
-        <v>2286.1708800678593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1682.2708800678593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O25" s="8" t="s">
         <v>98</v>
       </c>
       <c r="P25" s="8">
         <f>0.07*SUM(P21:P23)</f>
-        <v>3200.6392320950031</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2355.179232095003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O26" s="8"/>
       <c r="P26" s="8">
         <f>SUM(Table14161718[Cost])</f>
-        <v>51210.227713520049</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>37682.867713520049</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7753,37 +7647,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="P19" sqref="P19:P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" customWidth="1"/>
-    <col min="12" max="12" width="24.44140625" customWidth="1"/>
-    <col min="13" max="13" width="32.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" customWidth="1"/>
+    <col min="13" max="13" width="32.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="16" max="16" width="23.77734375" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" customWidth="1"/>
-    <col min="20" max="20" width="22.109375" customWidth="1"/>
-    <col min="21" max="21" width="18.21875" customWidth="1"/>
-    <col min="22" max="22" width="14.21875" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7854,7 +7748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
@@ -7936,7 +7830,7 @@
         <v>4.0904294399999994</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -8018,7 +7912,7 @@
         <v>7.9891199999999996E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
@@ -8100,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
@@ -8180,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
@@ -8262,7 +8156,7 @@
         <v>8.1222719999999984E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
@@ -8343,7 +8237,7 @@
         <v>3.1473803999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>90</v>
       </c>
@@ -8425,7 +8319,7 @@
         <v>272.69529599999998</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>90</v>
       </c>
@@ -8446,11 +8340,11 @@
         <v>5000</v>
       </c>
       <c r="G9" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
         <f>Table10[[#This Row],[Total Floor Space]]*Table10[[#This Row],[Rent per sqm per year]]</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f>(0.5+1/6*6)*Table10[[#This Row],[Quantity]]</f>
@@ -8507,8 +8401,8 @@
         <v>20305.679999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
       <c r="B10" s="27"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -8517,7 +8411,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25">
         <f>SUM(Table10[Total Rent cost per year])</f>
-        <v>24240</v>
+        <v>4240</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -8541,7 +8435,7 @@
         <v>20585.774219759998</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>41</v>
       </c>
@@ -8576,7 +8470,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>43</v>
       </c>
@@ -8614,10 +8508,10 @@
       </c>
       <c r="M16">
         <f>Table10[[#Totals],[Total Rent cost per year]]+Table10[[#Totals],[Energy Cost per year in CU]]+Table10[[#Totals],[FM Cost]]+J19</f>
-        <v>60304.782696752547</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>40304.782696752547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>44</v>
       </c>
@@ -8654,7 +8548,7 @@
         <v>106.76675718565343</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>64</v>
       </c>
@@ -8697,7 +8591,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J19">
         <f>SUM(J16:J18)</f>
         <v>279.89689299254849</v>
@@ -8707,10 +8601,10 @@
       </c>
       <c r="P19" s="8">
         <f>Table10[[#Totals],[Total Rent cost per year]]</f>
-        <v>24240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O20" s="8" t="s">
         <v>95</v>
       </c>
@@ -8719,7 +8613,7 @@
         <v>15199.111584</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O21" s="8" t="s">
         <v>96</v>
       </c>
@@ -8728,36 +8622,40 @@
         <v>20585.774219759998</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O22" s="8" t="s">
         <v>97</v>
       </c>
       <c r="P22" s="8">
         <f>0.05*SUM(P19:P21)</f>
-        <v>3001.2442901880004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2001.2442901880002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O23" s="8" t="s">
         <v>98</v>
       </c>
       <c r="P23" s="8">
         <f>0.07*SUM(P19:P21)</f>
-        <v>4201.7420062632</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2801.7420062632004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O24" s="8"/>
       <c r="P24" s="8">
         <f>SUM(Table1416171819[Cost])</f>
-        <v>67227.8721002112</v>
+        <v>44827.8721002112</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8767,38 +8665,38 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="P19" sqref="P19:P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="8" customWidth="1"/>
     <col min="5" max="5" width="26" style="8" customWidth="1"/>
     <col min="6" max="6" width="20" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="24" style="8" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="8"/>
-    <col min="12" max="12" width="24.44140625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="32.33203125" style="8" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="8"/>
+    <col min="12" max="12" width="24.42578125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="32.28515625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="8" customWidth="1"/>
     <col min="15" max="15" width="25" style="8" customWidth="1"/>
-    <col min="16" max="16" width="23.77734375" style="8" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" style="8" customWidth="1"/>
-    <col min="20" max="20" width="22.109375" style="8" customWidth="1"/>
-    <col min="21" max="21" width="18.21875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="14.21875" style="8" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" style="8" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="8"/>
+    <col min="16" max="16" width="23.7109375" style="8" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" style="8" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" style="8" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" style="8" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="8" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="8" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8869,7 +8767,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
@@ -8951,7 +8849,7 @@
         <v>8.1808588799999988</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -9033,7 +8931,7 @@
         <v>0.15978239999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
@@ -9115,7 +9013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
@@ -9195,7 +9093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
@@ -9277,7 +9175,7 @@
         <v>8.1222719999999984E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
@@ -9358,7 +9256,7 @@
         <v>3.1473803999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>90</v>
       </c>
@@ -9439,7 +9337,7 @@
         <v>1636.1717759999997</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>90</v>
       </c>
@@ -9521,8 +9419,8 @@
         <v>53.260799999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
       <c r="B10" s="27"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -9555,7 +9453,7 @@
         <v>1701.0018203999996</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>41</v>
       </c>
@@ -9590,7 +9488,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>43</v>
       </c>
@@ -9631,7 +9529,7 @@
         <v>10839.120473392548</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>44</v>
       </c>
@@ -9668,7 +9566,7 @@
         <v>106.76675718565343</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>64</v>
       </c>
@@ -9711,7 +9609,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J19" s="8">
         <f>SUM(J16:J18)</f>
         <v>279.89689299254849</v>
@@ -9724,7 +9622,7 @@
         <v>8480</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O20" s="8" t="s">
         <v>95</v>
       </c>
@@ -9733,7 +9631,7 @@
         <v>378.22176000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O21" s="8" t="s">
         <v>96</v>
       </c>
@@ -9742,7 +9640,7 @@
         <v>1980.898713392548</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O22" s="8" t="s">
         <v>97</v>
       </c>
@@ -9751,7 +9649,7 @@
         <v>541.95602366962737</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O23" s="8" t="s">
         <v>98</v>
       </c>
@@ -9760,7 +9658,7 @@
         <v>758.73843313747841</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P24" s="8">
         <f>SUM(Table141617181920[Cost])</f>
         <v>12139.814930199653</v>
@@ -9768,9 +9666,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9779,38 +9681,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N18" sqref="N18:N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="8" customWidth="1"/>
     <col min="5" max="5" width="26" style="8" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="24" style="8" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" style="8"/>
-    <col min="12" max="12" width="24.44140625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="32.33203125" style="8" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" style="8" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="8"/>
+    <col min="12" max="12" width="24.42578125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="32.28515625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="8" customWidth="1"/>
     <col min="15" max="15" width="25" style="8" customWidth="1"/>
-    <col min="16" max="16" width="23.77734375" style="8" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" style="8" customWidth="1"/>
-    <col min="20" max="20" width="22.109375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" style="8" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" style="8" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" style="8" customWidth="1"/>
     <col min="21" max="21" width="24" style="8" customWidth="1"/>
-    <col min="22" max="22" width="14.21875" style="8" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" style="8" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="8"/>
+    <col min="22" max="22" width="14.28515625" style="8" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="8" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9881,7 +9783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -9963,7 +9865,7 @@
         <v>8.1808588799999988</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -10045,7 +9947,7 @@
         <v>0.31956479999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -10126,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -10207,7 +10109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -10288,7 +10190,7 @@
         <v>8.1222719999999984E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -10370,7 +10272,7 @@
         <v>2451.91086</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -10453,7 +10355,7 @@
         <v>127.87705036800001</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -10475,11 +10377,11 @@
         <v>2440</v>
       </c>
       <c r="G9" s="8">
-        <v>10.6</v>
+        <v>2</v>
       </c>
       <c r="H9" s="8">
         <f>Table913[[#This Row],[Total Floor Space]]*Table913[[#This Row],[Rent per sqm per year]]</f>
-        <v>25864</v>
+        <v>4880</v>
       </c>
       <c r="I9" s="8">
         <f>(0.5+1/6*16)*Table913[[#This Row],[Quantity]]</f>
@@ -10536,7 +10438,7 @@
         <v>9827.9491199999993</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>90</v>
       </c>
@@ -10616,10 +10518,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H11" s="8">
         <f>SUM(Table913[Total Rent cost per year])</f>
-        <v>41361.199999999997</v>
+        <v>20377.2</v>
       </c>
       <c r="O11" s="8">
         <f>SUBTOTAL(109,Table913[Energy Cost per year in CU])</f>
@@ -10630,12 +10532,12 @@
         <v>12416.318676767998</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P15" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
@@ -10668,10 +10570,10 @@
       </c>
       <c r="P16" s="8">
         <f>Table913[[#Totals],[Total Rent cost per year]]+Table913[[#Totals],[Energy Cost per year in CU]]+Table913[[#Totals],[FM Cost]]+J20</f>
-        <v>63322.906036109183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>42338.906036109183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>43</v>
       </c>
@@ -10714,7 +10616,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>44</v>
       </c>
@@ -10755,10 +10657,10 @@
       </c>
       <c r="N18" s="8">
         <f>Table913[[#Totals],[Total Rent cost per year]]</f>
-        <v>41361.199999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>20377.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>64</v>
       </c>
@@ -10802,7 +10704,7 @@
         <v>9256.7074175999987</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J20" s="8">
         <f>SUM(J17:J19)</f>
         <v>288.67994174118155</v>
@@ -10815,40 +10717,44 @@
         <v>12704.99861850918</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M21" s="8" t="s">
         <v>97</v>
       </c>
       <c r="N21" s="8">
         <f>0.05*SUM(N18:N20)</f>
-        <v>3166.1453018054594</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2116.9453018054592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M22" s="8" t="s">
         <v>98</v>
       </c>
       <c r="N22" s="8">
         <f>0.07*SUM(N18:N20)</f>
-        <v>4432.6034225276435</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2963.7234225276429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N23" s="8">
         <f>SUM(Table14161718192021[Cost])</f>
-        <v>70921.654760442281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>47419.574760442287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10857,39 +10763,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
+    <sheetView topLeftCell="F4" workbookViewId="0">
       <selection activeCell="M20" sqref="M20:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="8" customWidth="1"/>
     <col min="5" max="5" width="26" style="8" customWidth="1"/>
     <col min="6" max="6" width="20" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="24" style="8" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="8"/>
-    <col min="12" max="12" width="24.44140625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="32.33203125" style="8" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="8"/>
+    <col min="12" max="12" width="24.42578125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="32.28515625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="8" customWidth="1"/>
     <col min="15" max="15" width="25" style="8" customWidth="1"/>
-    <col min="16" max="16" width="23.77734375" style="8" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" style="8" customWidth="1"/>
-    <col min="20" max="20" width="22.109375" style="8" customWidth="1"/>
-    <col min="21" max="21" width="18.21875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="14.21875" style="8" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" style="8" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="8"/>
+    <col min="16" max="16" width="23.7109375" style="8" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" style="8" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" style="8" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" style="8" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="8" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="8" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10960,7 +10866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
@@ -11042,7 +10948,7 @@
         <v>8.1808588799999988</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -11124,7 +11030,7 @@
         <v>0.15978239999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
@@ -11206,7 +11112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
@@ -11286,7 +11192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
@@ -11368,7 +11274,7 @@
         <v>8.1222719999999984E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
@@ -11449,7 +11355,7 @@
         <v>3.1473803999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>90</v>
       </c>
@@ -11531,7 +11437,7 @@
         <v>272.69529599999998</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>90</v>
       </c>
@@ -11552,11 +11458,11 @@
         <v>5000</v>
       </c>
       <c r="G9" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
         <f>Table1014[[#This Row],[Total Floor Space]]*Table1014[[#This Row],[Rent per sqm per year]]</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I9" s="8">
         <f>(0.5+1/6*6)*Table1014[[#This Row],[Quantity]]</f>
@@ -11613,8 +11519,8 @@
         <v>20305.679999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
       <c r="B10" s="27"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -11623,7 +11529,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25">
         <f>SUM(Table1014[Total Rent cost per year])</f>
-        <v>28480</v>
+        <v>8480</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -11647,7 +11553,7 @@
         <v>20589.944540399996</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>41</v>
       </c>
@@ -11682,7 +11588,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>43</v>
       </c>
@@ -11720,10 +11626,10 @@
       </c>
       <c r="M16" s="8">
         <f>Table1014[[#Totals],[Total Rent cost per year]]+Table1014[[#Totals],[Energy Cost per year in CU]]+Table1014[[#Totals],[FM Cost]]+J19</f>
-        <v>64721.854393392539</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44721.854393392539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>44</v>
       </c>
@@ -11760,7 +11666,7 @@
         <v>106.76675718565343</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>64</v>
       </c>
@@ -11797,7 +11703,7 @@
         <v>169.18966840618819</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J19" s="8">
         <f>SUM(J16:J18)</f>
         <v>279.89689299254849</v>
@@ -11809,16 +11715,16 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L20" s="8" t="s">
         <v>94</v>
       </c>
       <c r="M20" s="8">
         <f>Table1014[[#Totals],[Total Rent cost per year]]</f>
-        <v>28480</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L21" s="8" t="s">
         <v>95</v>
       </c>
@@ -11827,7 +11733,7 @@
         <v>15372.01296</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L22" s="8" t="s">
         <v>96</v>
       </c>
@@ -11836,35 +11742,39 @@
         <v>20869.841433392543</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L23" s="8" t="s">
         <v>97</v>
       </c>
       <c r="M23" s="8">
         <f>0.05*SUM(M20:M22)</f>
-        <v>3236.0927196696271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2236.0927196696271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L24" s="8" t="s">
         <v>98</v>
       </c>
       <c r="M24" s="8">
         <f>0.07*SUM(M20:M22)</f>
-        <v>4530.5298075374785</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3130.5298075374781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M25" s="8">
         <f>SUM(Table1416171819202122[Cost])</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11873,27 +11783,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D27:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H40" workbookViewId="0">
-      <selection activeCell="Q55" sqref="Q55"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
-    <col min="13" max="14" width="19.77734375" customWidth="1"/>
-    <col min="15" max="15" width="20.88671875" customWidth="1"/>
-    <col min="16" max="17" width="20.77734375" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="17" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>99</v>
       </c>
@@ -11937,52 +11847,51 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D28" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E28" s="8">
-        <v>17260</v>
+        <v>7308</v>
       </c>
       <c r="F28" s="8">
-        <v>23074</v>
+        <v>3074</v>
       </c>
       <c r="G28" s="8">
-        <v>23869</v>
+        <v>3869</v>
       </c>
       <c r="H28" s="8">
-        <f>Table4[[#Totals],[Total Rent cost per year]]</f>
         <v>3869</v>
       </c>
       <c r="I28" s="8">
-        <v>3869</v>
+        <v>5936</v>
       </c>
       <c r="J28" s="8">
-        <v>23074</v>
+        <v>13074</v>
       </c>
       <c r="K28" s="12">
-        <v>25936</v>
+        <v>5936</v>
       </c>
       <c r="L28" s="12">
-        <v>27314</v>
+        <v>7314</v>
       </c>
       <c r="M28" s="12">
-        <v>28280.799999999999</v>
+        <v>16202.8</v>
       </c>
       <c r="N28">
-        <v>24240</v>
+        <v>4240</v>
       </c>
       <c r="O28">
         <v>8480</v>
       </c>
       <c r="P28">
-        <v>41361.199999999997</v>
+        <v>20377.2</v>
       </c>
       <c r="Q28">
-        <v>28480</v>
-      </c>
-    </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.3">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D29" s="8" t="s">
         <v>95</v>
       </c>
@@ -11996,14 +11905,13 @@
         <v>14871.900355200003</v>
       </c>
       <c r="H29" s="8">
-        <f>Table4[[#Totals],[Energy Cost per year in CU]]</f>
-        <v>1724.3169983999999</v>
+        <v>3279.3529536000001</v>
       </c>
       <c r="I29" s="8">
-        <v>1724.3169983999999</v>
+        <v>2489.7663590400002</v>
       </c>
       <c r="J29" s="8">
-        <v>17790.588565056001</v>
+        <v>11115.468565056002</v>
       </c>
       <c r="K29" s="13">
         <v>15946.915080960001</v>
@@ -12027,7 +11935,7 @@
         <v>15372.01296</v>
       </c>
     </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D30" s="8" t="s">
         <v>96</v>
       </c>
@@ -12041,11 +11949,10 @@
         <v>20766.619334565716</v>
       </c>
       <c r="H30" s="8">
-        <f>Table4[[#Totals],[FM Cost]]+D25</f>
-        <v>1646.5987759679997</v>
+        <v>2263.0546533337124</v>
       </c>
       <c r="I30" s="8">
-        <v>2262.3544069657128</v>
+        <v>2233.9824704598395</v>
       </c>
       <c r="J30" s="8">
         <v>21331.706543720222</v>
@@ -12072,137 +11979,135 @@
         <v>20869.841433392543</v>
       </c>
     </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D31" s="8" t="s">
         <v>97</v>
       </c>
       <c r="E31" s="8">
-        <v>1358.4500945968914</v>
+        <v>860.85009459689138</v>
       </c>
       <c r="F31" s="8">
-        <v>2951.3314148312002</v>
+        <v>1951.3314148312002</v>
       </c>
       <c r="G31" s="8">
-        <v>2975.3759844882861</v>
+        <v>1975.3759844882859</v>
       </c>
       <c r="H31" s="8">
-        <f>0.05*SUM(H28:H30)</f>
-        <v>361.99578871839998</v>
+        <v>470.57038034668568</v>
       </c>
       <c r="I31" s="8">
-        <v>392.78357026828564</v>
+        <v>532.98744147499201</v>
       </c>
       <c r="J31" s="8">
-        <v>3109.8147554388111</v>
+        <v>2276.0587554388112</v>
       </c>
       <c r="K31" s="13">
-        <v>3130.6635446429923</v>
+        <v>2130.6635446429923</v>
       </c>
       <c r="L31" s="13">
-        <v>3152.6914807682861</v>
+        <v>2152.6914807682861</v>
       </c>
       <c r="M31" s="13">
-        <v>2286.1708800678593</v>
+        <v>1682.2708800678593</v>
       </c>
       <c r="N31">
-        <v>3001.2442901880004</v>
+        <v>2001.2442901880002</v>
       </c>
       <c r="O31">
         <v>541.95602366962737</v>
       </c>
       <c r="P31">
-        <v>3166.1453018054594</v>
+        <v>2116.9453018054592</v>
       </c>
       <c r="Q31">
-        <v>3236.0927196696271</v>
-      </c>
-    </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.3">
+        <v>2236.0927196696271</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D32" s="8" t="s">
         <v>98</v>
       </c>
       <c r="E32" s="8">
-        <v>1901.830132435648</v>
+        <v>1205.1901324356479</v>
       </c>
       <c r="F32" s="8">
-        <v>4131.863980763681</v>
+        <v>2731.8639807636805</v>
       </c>
       <c r="G32" s="8">
-        <v>4165.5263782836009</v>
+        <v>2765.5263782836005</v>
       </c>
       <c r="H32" s="8">
-        <f>0.07*SUM(H28:H30)</f>
-        <v>506.79410420575999</v>
+        <v>658.79853248536006</v>
       </c>
       <c r="I32" s="8">
-        <v>549.89699837559988</v>
+        <v>746.18241806498884</v>
       </c>
       <c r="J32" s="8">
-        <v>4353.7406576143358</v>
+        <v>3186.482257614336</v>
       </c>
       <c r="K32" s="12">
-        <v>4382.9289625001893</v>
+        <v>2982.9289625001893</v>
       </c>
       <c r="L32" s="12">
-        <v>4413.768073075601</v>
+        <v>3013.7680730756006</v>
       </c>
       <c r="M32" s="12">
-        <v>3200.6392320950031</v>
+        <v>2355.179232095003</v>
       </c>
       <c r="N32">
-        <v>4201.7420062632</v>
+        <v>2801.7420062632004</v>
       </c>
       <c r="O32">
         <v>758.73843313747841</v>
       </c>
       <c r="P32">
-        <v>4432.6034225276435</v>
+        <v>2963.7234225276429</v>
       </c>
       <c r="Q32">
-        <v>4530.5298075374785</v>
-      </c>
-    </row>
-    <row r="33" spans="4:17" x14ac:dyDescent="0.3">
+        <v>3130.5298075374781</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D33" s="25"/>
       <c r="E33" s="25">
         <f>SUM(Table22[FTTC_GPON_25])</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="F33" s="25">
         <f>SUBTOTAL(109,Table22[FTTB_XGPON_50])</f>
-        <v>66109.823692218881</v>
+        <v>43709.823692218881</v>
       </c>
       <c r="G33" s="25">
         <f>SUBTOTAL(109,Table22[FTTB_DWDM_50])</f>
-        <v>66648.422052537615</v>
+        <v>44248.4220525376</v>
       </c>
       <c r="H33" s="25">
         <f>SUBTOTAL(109,Table22[FTTH_DWDM_100])</f>
-        <v>8108.705667292159</v>
+        <v>10540.776519765759</v>
       </c>
       <c r="I33" s="25">
         <f>SUBTOTAL(109,Table22[FTTH_XGPON_100])</f>
-        <v>8798.3519740095981</v>
+        <v>11938.918689039821</v>
       </c>
       <c r="J33" s="25">
         <f>SUBTOTAL(109,Table22[FTTC_GPON_100])</f>
-        <v>69659.850521829372</v>
+        <v>50983.71612182937</v>
       </c>
       <c r="K33" s="30">
         <f>SUBTOTAL(109,Table22[FTTB_XGPON_100])</f>
-        <v>70126.863400003014</v>
+        <v>47726.863400003029</v>
       </c>
       <c r="L33" s="30">
         <f>SUBTOTAL(109,Table22[FTTB_DWDM_100])</f>
-        <v>70620.289169209602</v>
+        <v>48220.289169209609</v>
       </c>
       <c r="M33" s="30">
         <f>SUBTOTAL(109,Table22[FTTC_Hybridpon_25])</f>
-        <v>51210.227713520049</v>
+        <v>37682.867713520049</v>
       </c>
       <c r="N33" s="25">
         <f>SUBTOTAL(109,Table22[FTTB_Hybridpon_50])</f>
-        <v>67227.8721002112</v>
+        <v>44827.8721002112</v>
       </c>
       <c r="O33" s="25">
         <f>SUBTOTAL(109,Table22[FTTH_Hybridpon_100])</f>
@@ -12210,97 +12115,101 @@
       </c>
       <c r="P33" s="25">
         <f>SUBTOTAL(109,Table22[FTTC_Hybridpon_100])</f>
-        <v>70921.654760442281</v>
+        <v>47419.574760442287</v>
       </c>
       <c r="Q33" s="25">
         <f>SUBTOTAL(109,Table22[FTTB_Hybridpon_100])</f>
-        <v>72488.476920599642</v>
-      </c>
-    </row>
-    <row r="48" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="13:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>50088.476920599649</v>
+      </c>
+    </row>
+    <row r="48" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="13:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M49" s="11">
         <f>SUM(Table22[FTTC_GPON_25])</f>
-        <v>30429.282118970365</v>
-      </c>
-    </row>
-    <row r="50" spans="13:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>19283.042118970367</v>
+      </c>
+    </row>
+    <row r="50" spans="13:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M50" s="11">
         <f>SUBTOTAL(109,Table22[FTTB_XGPON_50])</f>
-        <v>66109.823692218881</v>
-      </c>
-    </row>
-    <row r="51" spans="13:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>43709.823692218881</v>
+      </c>
+    </row>
+    <row r="51" spans="13:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M51" s="11">
         <f>SUBTOTAL(109,Table22[FTTB_DWDM_50])</f>
-        <v>66648.422052537615</v>
-      </c>
-    </row>
-    <row r="52" spans="13:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44248.4220525376</v>
+      </c>
+    </row>
+    <row r="52" spans="13:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M52" s="11">
         <f>SUBTOTAL(109,Table22[FTTH_DWDM_100])</f>
-        <v>8108.705667292159</v>
-      </c>
-    </row>
-    <row r="53" spans="13:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10540.776519765759</v>
+      </c>
+    </row>
+    <row r="53" spans="13:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M53" s="11">
         <f>SUBTOTAL(109,Table22[FTTH_XGPON_100])</f>
-        <v>8798.3519740095981</v>
-      </c>
-    </row>
-    <row r="54" spans="13:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>11938.918689039821</v>
+      </c>
+    </row>
+    <row r="54" spans="13:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M54" s="11">
         <f>SUBTOTAL(109,Table22[FTTC_GPON_100])</f>
-        <v>69659.850521829372</v>
-      </c>
-    </row>
-    <row r="55" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M55" s="31">
+        <v>50983.71612182937</v>
+      </c>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="29">
         <f>SUBTOTAL(109,Table22[FTTB_XGPON_100])</f>
-        <v>70126.863400003014</v>
-      </c>
-    </row>
-    <row r="56" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M56" s="31">
+        <v>47726.863400003029</v>
+      </c>
+    </row>
+    <row r="56" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M56" s="29">
         <f>SUBTOTAL(109,Table22[FTTB_DWDM_100])</f>
-        <v>70620.289169209602</v>
-      </c>
-    </row>
-    <row r="57" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M57" s="31">
+        <v>48220.289169209609</v>
+      </c>
+    </row>
+    <row r="57" spans="13:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M57" s="29">
         <f>SUBTOTAL(109,Table22[FTTC_Hybridpon_25])</f>
-        <v>51210.227713520049</v>
-      </c>
-    </row>
-    <row r="58" spans="13:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>37682.867713520049</v>
+      </c>
+    </row>
+    <row r="58" spans="13:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M58" s="11">
         <f>SUBTOTAL(109,Table22[FTTB_Hybridpon_50])</f>
-        <v>67227.8721002112</v>
-      </c>
-    </row>
-    <row r="59" spans="13:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44827.8721002112</v>
+      </c>
+    </row>
+    <row r="59" spans="13:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M59" s="11">
         <f>SUBTOTAL(109,Table22[FTTH_Hybridpon_100])</f>
         <v>12139.814930199653</v>
       </c>
     </row>
-    <row r="60" spans="13:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="13:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M60" s="11">
         <f>SUBTOTAL(109,Table22[FTTC_Hybridpon_100])</f>
-        <v>70921.654760442281</v>
-      </c>
-    </row>
-    <row r="61" spans="13:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>47419.574760442287</v>
+      </c>
+    </row>
+    <row r="61" spans="13:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M61" s="14">
         <f>SUBTOTAL(109,Table22[FTTB_Hybridpon_100])</f>
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -12313,31 +12222,31 @@
       <selection activeCell="I26" sqref="I26:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" customWidth="1"/>
-    <col min="14" max="14" width="24.109375" customWidth="1"/>
-    <col min="15" max="15" width="26.44140625" customWidth="1"/>
-    <col min="16" max="16" width="21.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" customWidth="1"/>
-    <col min="20" max="20" width="7.5546875" customWidth="1"/>
-    <col min="22" max="23" width="16.6640625" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" customWidth="1"/>
+    <col min="22" max="23" width="16.7109375" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12420,7 +12329,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -12515,7 +12424,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -12608,7 +12517,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12701,7 +12610,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -12793,7 +12702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -12885,7 +12794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -12978,7 +12887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -12992,18 +12901,18 @@
         <v>2488</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <f>Table2[[#This Row],[Floor Space per component]]*Table2[[#This Row],[Quantity]]</f>
-        <v>2488</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>
       </c>
       <c r="H8" s="2">
         <f>Table2[[#This Row],[Rent per sqm per year]]*Table2[[#This Row],[Total Floor Space]]</f>
-        <v>9952</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>2488</v>
@@ -13071,7 +12980,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -13164,7 +13073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -13256,10 +13165,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H11" s="22">
         <f>SUM(Table2[Total Rent cost per year])</f>
-        <v>17260</v>
+        <v>7308</v>
       </c>
       <c r="O11" s="22">
         <f>SUM(Table2[Energy Cost per year in CU])</f>
@@ -13270,7 +13179,7 @@
         <v>5573.7289654697133</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -13308,7 +13217,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -13353,7 +13262,7 @@
         <v>78.220243988925162</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -13397,7 +13306,7 @@
         <v>39.297377489463415</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -13441,18 +13350,18 @@
         <v>317.30646582172432</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q19">
         <f>Table2[[#Totals],[Total Rent cost per year]]+Table2[[#Totals],[Energy Cost per year in CU]]+Table2[[#Totals],[FM Cost]]+L20</f>
-        <v>27169.001891937824</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+        <v>17217.001891937827</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
         <v>53</v>
       </c>
@@ -13461,21 +13370,21 @@
         <v>434.82408730011286</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H25" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H26" s="1" t="s">
         <v>94</v>
       </c>
       <c r="I26">
         <f>Table2[[#Totals],[Total Rent cost per year]]</f>
-        <v>17260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+        <v>7308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H27" s="1" t="s">
         <v>95</v>
       </c>
@@ -13484,7 +13393,7 @@
         <v>3900.4488391680002</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H28" s="1" t="s">
         <v>96</v>
       </c>
@@ -13493,7 +13402,7 @@
         <v>6008.5530527698265</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" s="9">
         <v>171056.49354431301</v>
       </c>
@@ -13508,31 +13417,35 @@
       </c>
       <c r="I29">
         <f>0.05*SUM(I26:I28)</f>
-        <v>1358.4500945968914</v>
+        <v>860.85009459689138</v>
       </c>
       <c r="S29">
         <v>11727.88547395296</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H30" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I30">
         <f>0.07*SUM(I26:I28)</f>
-        <v>1901.830132435648</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1205.1901324356479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I31">
         <f>SUM(I26:I30)</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13541,41 +13454,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N26" sqref="N26:N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" customWidth="1"/>
-    <col min="9" max="9" width="25.5546875" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" customWidth="1"/>
-    <col min="13" max="13" width="34.109375" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="34.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" customWidth="1"/>
     <col min="16" max="16" width="25" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" customWidth="1"/>
-    <col min="18" max="18" width="17.88671875" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" customWidth="1"/>
     <col min="19" max="19" width="19" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" customWidth="1"/>
     <col min="22" max="22" width="15" customWidth="1"/>
-    <col min="23" max="23" width="19.33203125" customWidth="1"/>
-    <col min="24" max="24" width="23.5546875" customWidth="1"/>
-    <col min="25" max="25" width="21.33203125" customWidth="1"/>
-    <col min="26" max="26" width="16.109375" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" customWidth="1"/>
+    <col min="24" max="24" width="23.5703125" customWidth="1"/>
+    <col min="25" max="25" width="21.28515625" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" customWidth="1"/>
     <col min="27" max="27" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13658,7 +13571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -13741,7 +13654,7 @@
         <v>0.92034662399999989</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -13823,7 +13736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13905,7 +13818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -13987,7 +13900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -14070,7 +13983,7 @@
         <v>1.59682536</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -14152,7 +14065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -14235,7 +14148,7 @@
         <v>6.2947607999999988</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -14249,18 +14162,18 @@
         <v>5000</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="6">
         <f>Table3[[#This Row],[Floor Space per component]]*Table3[[#This Row],[Quantity]]</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9" s="6">
         <f>Table3[[#This Row],[Rent per sqm per year]]*Table3[[#This Row],[Total Floor Space]]</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f>(0.5+1/6*8)*Table3[[#This Row],[Quantity]]</f>
@@ -14318,7 +14231,7 @@
         <v>20160.045000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -14401,10 +14314,10 @@
         <v>265.23878399999995</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H11">
         <f>SUM(Table3[Total Rent cost per year])</f>
-        <v>23074</v>
+        <v>3074</v>
       </c>
       <c r="O11">
         <f>SUBTOTAL(109,Table3[Energy Cost per year in CU])</f>
@@ -14415,7 +14328,7 @@
         <v>20434.095716784002</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -14444,7 +14357,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <f>171056.493544313/1000</f>
         <v>171.05649354431301</v>
@@ -14456,7 +14369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <f>85582.6331149716/1000</f>
         <v>85.5826331149716</v>
@@ -14468,7 +14381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <f>384090.367674523/1000</f>
         <v>384.09036767452295</v>
@@ -14483,13 +14396,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M18">
         <f>Table3[[#Totals],[Total Rent cost per year]]+Table3[[#Totals],[Energy Cost per year in CU]]+Table3[[#Totals],[FM Cost]]+I23</f>
-        <v>59321.968045115842</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>39321.968045115842</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>41</v>
       </c>
@@ -14519,7 +14432,7 @@
       </c>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -14552,7 +14465,7 @@
         <v>78.220243988925176</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -14585,7 +14498,7 @@
         <v>39.297377489463408</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -14618,28 +14531,28 @@
         <v>177.82212701345154</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I23">
         <f>SUM(I20:I22)</f>
         <v>295.33974849184011</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M25" s="8" t="s">
         <v>93</v>
       </c>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M26" s="8" t="s">
         <v>94</v>
       </c>
       <c r="N26" s="8">
         <f>Table3[[#Totals],[Total Rent cost per year]]</f>
-        <v>23074</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M27" s="8" t="s">
         <v>95</v>
       </c>
@@ -14648,7 +14561,7 @@
         <v>15518.532579840001</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M28" s="8" t="s">
         <v>96</v>
       </c>
@@ -14657,31 +14570,31 @@
         <v>20434.095716784002</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M29" s="8" t="s">
         <v>97</v>
       </c>
       <c r="N29" s="8">
         <f>0.05*SUM(N26:N28)</f>
-        <v>2951.3314148312002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1951.3314148312002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M30" s="8" t="s">
         <v>98</v>
       </c>
       <c r="N30" s="8">
         <f>0.07*SUM(N26:N28)</f>
-        <v>4131.863980763681</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2731.8639807636805</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N31">
         <f>SUM(N26:N30)</f>
-        <v>66109.823692218881</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+        <v>43709.823692218881</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -14689,6 +14602,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -14699,37 +14615,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N22" sqref="N22:N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
-    <col min="12" max="12" width="24.44140625" customWidth="1"/>
-    <col min="13" max="13" width="32.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" customWidth="1"/>
+    <col min="13" max="13" width="32.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="16" max="16" width="23.77734375" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" customWidth="1"/>
-    <col min="20" max="20" width="22.109375" customWidth="1"/>
-    <col min="21" max="21" width="18.21875" customWidth="1"/>
-    <col min="22" max="22" width="14.21875" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14803,7 +14719,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
@@ -14884,7 +14800,7 @@
         <v>5.1130367999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -14966,7 +14882,7 @@
         <v>0.21637199999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
@@ -15047,7 +14963,7 @@
         <v>0.21637199999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
@@ -15127,7 +15043,7 @@
         <v>0.21637199999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
@@ -15209,7 +15125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>3</v>
       </c>
@@ -15289,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
@@ -15371,7 +15287,7 @@
         <v>2.6613756</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>13</v>
       </c>
@@ -15392,11 +15308,11 @@
         <v>5000</v>
       </c>
       <c r="G9" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f>D9*(0.5+(1/6*8))</f>
@@ -15453,7 +15369,7 @@
         <v>20160.045000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>13</v>
       </c>
@@ -15474,7 +15390,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="1"/>
@@ -15535,7 +15451,7 @@
         <v>265.23878399999995</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -15544,7 +15460,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25">
         <f>SUBTOTAL(109,Table1[Total Rent cost per year])</f>
-        <v>23869</v>
+        <v>3869</v>
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
@@ -15568,12 +15484,12 @@
         <v>20428.645405968004</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>41</v>
       </c>
@@ -15606,10 +15522,10 @@
       </c>
       <c r="M17">
         <f>Table1[[#Totals],[Total Rent cost per year]]+Table1[[#Totals],[Energy Cost per year in CU]]+Table1[[#Totals],[FM Cost]]+J20</f>
-        <v>59507.519689765722</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>39507.519689765715</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -15646,7 +15562,7 @@
         <v>33.207515009141716</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -15683,28 +15599,28 @@
         <v>304.76641358857131</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J20">
         <f>SUM(J18:J19)</f>
         <v>337.97392859771304</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M21" s="8" t="s">
         <v>93</v>
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M22" s="8" t="s">
         <v>94</v>
       </c>
       <c r="N22" s="8">
         <f>Table1[[#Totals],[Total Rent cost per year]]</f>
-        <v>23869</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M23" s="8" t="s">
         <v>95</v>
       </c>
@@ -15713,7 +15629,7 @@
         <v>14871.900355200003</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M24" s="8" t="s">
         <v>96</v>
       </c>
@@ -15722,35 +15638,39 @@
         <v>20766.619334565716</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M25" s="8" t="s">
         <v>97</v>
       </c>
       <c r="N25" s="8">
         <f>0.05*SUM(N22:N24)</f>
-        <v>2975.3759844882861</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1975.3759844882859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M26" s="8" t="s">
         <v>98</v>
       </c>
       <c r="N26" s="8">
         <f>0.07*SUM(N22:N24)</f>
-        <v>4165.5263782836009</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2765.5263782836005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M27" s="8"/>
       <c r="N27" s="8">
         <f>SUM(N22:N26)</f>
-        <v>66648.422052537615</v>
+        <v>44248.4220525376</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -15759,26 +15679,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N21" sqref="N21:N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15849,7 +15770,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -15860,7 +15781,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -15908,7 +15829,7 @@
       </c>
       <c r="R2" s="8">
         <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[FIT]]*24*365/1000000000</f>
-        <v>6.7276799999999998E-3</v>
+        <v>1.345536E-2</v>
       </c>
       <c r="S2" s="8">
         <f>2*Table4[[#This Row],[Mean dist in km from CO]]/Table4[[#This Row],[Avg Travel Speed]]</f>
@@ -15926,10 +15847,10 @@
       </c>
       <c r="W2" s="8">
         <f>Table4[[#This Row],[Cost per hour]]*Table4[[#This Row],[No. Of technicians]]*Table4[[#This Row],[Total Time to Repair(h)]]*Table4[[#This Row],[Failures per year]]</f>
-        <v>5.1130367999999995E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.10226073599999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -15940,7 +15861,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D3" s="26">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -15957,7 +15878,7 @@
       </c>
       <c r="I3" s="8">
         <f>0.5+(1/6*D3)</f>
-        <v>11.333333333333332</v>
+        <v>22.166666666666664</v>
       </c>
       <c r="J3" s="8">
         <v>2</v>
@@ -15967,11 +15888,11 @@
       </c>
       <c r="L3" s="8">
         <f>5*80*Table4[[#This Row],[Quantity]]</f>
-        <v>26000</v>
+        <v>52000</v>
       </c>
       <c r="M3" s="8">
         <f>Table4[[#This Row],[Energy consumption in W]]*24*365/1000</f>
-        <v>227760</v>
+        <v>455520</v>
       </c>
       <c r="N3" s="8">
         <f t="shared" ref="N3:N10" si="1">0.3048/50</f>
@@ -15979,7 +15900,7 @@
       </c>
       <c r="O3" s="8">
         <f>Table4[[#This Row],[Yearly Energy Consumption in kWh]]*Table1[[#This Row],[CU/kWh]]</f>
-        <v>1388.4249600000001</v>
+        <v>2776.8499200000001</v>
       </c>
       <c r="P3" s="8">
         <v>0</v>
@@ -15989,7 +15910,7 @@
       </c>
       <c r="R3" s="8">
         <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[FIT]]*24*365/1000000000</f>
-        <v>2.8469999999999999E-2</v>
+        <v>5.6939999999999998E-2</v>
       </c>
       <c r="S3" s="8">
         <f>2*Table4[[#This Row],[Mean dist in km from CO]]/Table4[[#This Row],[Avg Travel Speed]]</f>
@@ -16007,10 +15928,10 @@
       </c>
       <c r="W3" s="8">
         <f>Table4[[#This Row],[Cost per hour]]*Table4[[#This Row],[No. Of technicians]]*Table4[[#This Row],[Total Time to Repair(h)]]*Table4[[#This Row],[Failures per year]]</f>
-        <v>0.21637199999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.43274399999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -16021,7 +15942,7 @@
         <v>63</v>
       </c>
       <c r="D4" s="26">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -16038,7 +15959,7 @@
       </c>
       <c r="I4" s="8">
         <f t="shared" ref="I4:I10" si="2">0.5+(1/6*D4)</f>
-        <v>11.333333333333332</v>
+        <v>22.166666666666664</v>
       </c>
       <c r="J4" s="8">
         <v>2</v>
@@ -16048,11 +15969,11 @@
       </c>
       <c r="L4" s="8">
         <f>48*D4</f>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="M4" s="8">
         <f>Table4[[#This Row],[Energy consumption in W]]*24*365/1000</f>
-        <v>27331.200000000001</v>
+        <v>54662.400000000001</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" si="1"/>
@@ -16060,7 +15981,7 @@
       </c>
       <c r="O4" s="8">
         <f>Table4[[#This Row],[Yearly Energy Consumption in kWh]]*Table1[[#This Row],[CU/kWh]]</f>
-        <v>166.61099520000002</v>
+        <v>333.22199040000004</v>
       </c>
       <c r="P4" s="8">
         <v>0</v>
@@ -16070,7 +15991,7 @@
       </c>
       <c r="R4" s="8">
         <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[FIT]]*24*365/1000000000</f>
-        <v>2.8469999999999999E-2</v>
+        <v>5.6939999999999998E-2</v>
       </c>
       <c r="S4" s="8">
         <f>2*Table4[[#This Row],[Mean dist in km from CO]]/Table4[[#This Row],[Avg Travel Speed]]</f>
@@ -16088,10 +16009,10 @@
       </c>
       <c r="W4" s="8">
         <f>Table4[[#This Row],[Cost per hour]]*Table4[[#This Row],[No. Of technicians]]*Table4[[#This Row],[Total Time to Repair(h)]]*Table4[[#This Row],[Failures per year]]</f>
-        <v>0.21637199999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.43274399999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -16102,7 +16023,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D5" s="26">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -16119,7 +16040,7 @@
       </c>
       <c r="I5" s="8">
         <f t="shared" si="2"/>
-        <v>11.333333333333332</v>
+        <v>22.166666666666664</v>
       </c>
       <c r="J5" s="8">
         <v>2</v>
@@ -16150,7 +16071,7 @@
       </c>
       <c r="R5" s="8">
         <f>Table4[[#This Row],[Quantity]]*Table4[[#This Row],[FIT]]*24*365/1000000000</f>
-        <v>2.8469999999999999E-2</v>
+        <v>5.6939999999999998E-2</v>
       </c>
       <c r="S5" s="8">
         <f>2*Table4[[#This Row],[Mean dist in km from CO]]/Table4[[#This Row],[Avg Travel Speed]]</f>
@@ -16168,10 +16089,10 @@
       </c>
       <c r="W5" s="8">
         <f>Table4[[#This Row],[Cost per hour]]*Table4[[#This Row],[No. Of technicians]]*Table4[[#This Row],[Total Time to Repair(h)]]*Table4[[#This Row],[Failures per year]]</f>
-        <v>0.21637199999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.43274399999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -16252,7 +16173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -16332,7 +16253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -16412,7 +16333,7 @@
         <v>2.6613756</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -16432,7 +16353,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="0"/>
@@ -16493,7 +16414,7 @@
         <v>51.804449999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -16513,7 +16434,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="0"/>
@@ -16574,21 +16495,21 @@
         <v>1591.4327039999996</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H11">
         <f>SUBTOTAL(109,Table4[Total Rent cost per year])</f>
         <v>3869</v>
       </c>
       <c r="O11">
         <f>SUBTOTAL(109,Table4[Energy Cost per year in CU])</f>
-        <v>1724.3169983999999</v>
+        <v>3279.3529536000001</v>
       </c>
       <c r="W11">
         <f>SUM(Table4[FM Cost])</f>
-        <v>1646.5987759679997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1647.2990223359996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>41</v>
       </c>
@@ -16623,7 +16544,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>43</v>
       </c>
@@ -16661,10 +16582,10 @@
       </c>
       <c r="O16">
         <f>Table4[[#Totals],[Total Rent cost per year]]+Table4[[#Totals],[Energy Cost per year in CU]]+Table4[[#Totals],[FM Cost]]+J18</f>
-        <v>7855.6714053657115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>9411.4076069337134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
@@ -16701,19 +16622,19 @@
         <v>582.54811598857111</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J18">
         <f>SUM(J16:J17)</f>
         <v>615.75563099771284</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M20" s="8" t="s">
         <v>93</v>
       </c>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M21" s="8" t="s">
         <v>94</v>
       </c>
@@ -16722,53 +16643,57 @@
         <v>3869</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M22" s="8" t="s">
         <v>95</v>
       </c>
       <c r="N22" s="8">
         <f>Table4[[#Totals],[Energy Cost per year in CU]]</f>
-        <v>1724.3169983999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3279.3529536000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M23" s="8" t="s">
         <v>96</v>
       </c>
       <c r="N23" s="8">
         <f>Table4[[#Totals],[FM Cost]]+J18</f>
-        <v>2262.3544069657128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2263.0546533337124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M24" s="8" t="s">
         <v>97</v>
       </c>
       <c r="N24" s="8">
         <f>0.05*SUM(N21:N23)</f>
-        <v>392.78357026828564</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>470.57038034668568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M25" s="8" t="s">
         <v>98</v>
       </c>
       <c r="N25" s="8">
         <f>0.07*SUM(N21:N23)</f>
-        <v>549.89699837559988</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>658.79853248536006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M26" s="8"/>
       <c r="N26" s="8">
         <f>SUM(N21:N25)</f>
-        <v>8798.3519740095981</v>
+        <v>10540.776519765759</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -16777,43 +16702,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="M22" sqref="M22:M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" style="8" customWidth="1"/>
     <col min="6" max="6" width="25" style="8" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.5546875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="8"/>
-    <col min="12" max="12" width="25.6640625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="34.109375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="26.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="8"/>
+    <col min="12" max="12" width="25.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="34.140625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" style="8" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="17.88671875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" style="8" customWidth="1"/>
     <col min="19" max="19" width="19" style="8" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" style="8" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" style="8" customWidth="1"/>
     <col min="22" max="22" width="15" style="8" customWidth="1"/>
-    <col min="23" max="23" width="19.33203125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="23.5546875" style="8" customWidth="1"/>
-    <col min="25" max="25" width="21.33203125" style="8" customWidth="1"/>
-    <col min="26" max="26" width="16.109375" style="8" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" style="8" customWidth="1"/>
+    <col min="24" max="24" width="23.5703125" style="8" customWidth="1"/>
+    <col min="25" max="25" width="21.28515625" style="8" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" style="8" customWidth="1"/>
     <col min="27" max="27" width="11" style="8" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="8"/>
+    <col min="28" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -16896,7 +16821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -16980,7 +16905,7 @@
         <v>1.8406932479999998</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -17063,7 +16988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -17145,7 +17070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -17227,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -17310,7 +17235,7 @@
         <v>3.1936507199999999</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -17393,7 +17318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -17476,7 +17401,7 @@
         <v>12.589521599999998</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -17487,7 +17412,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="26">
-        <v>4877</v>
+        <v>5000</v>
       </c>
       <c r="E9" s="8">
         <v>0</v>
@@ -17505,7 +17430,7 @@
       </c>
       <c r="I9" s="8">
         <f>(0.5+1/6*8)*Table36[[#This Row],[Quantity]]</f>
-        <v>8941.1666666666661</v>
+        <v>9166.6666666666661</v>
       </c>
       <c r="J9" s="8">
         <v>6</v>
@@ -17536,7 +17461,7 @@
       </c>
       <c r="R9" s="8">
         <f>Table36[[#This Row],[Quantity]]*(Table36[[#This Row],[FIT]]*24*365)/1000000000</f>
-        <v>2.136126</v>
+        <v>2.19</v>
       </c>
       <c r="S9" s="8">
         <f>2*Table36[[#This Row],[Mean dist in km from CO]]/Table36[[#This Row],[Avg Travel Speed]]</f>
@@ -17555,10 +17480,10 @@
       </c>
       <c r="W9" s="8">
         <f>Table36[[#This Row],[Cost per hour]]*Table36[[#This Row],[Total Time to Repair(h)]]*Table36[[#This Row],[Failures per year]]</f>
-        <v>50.530060529999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+        <v>51.804449999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -17640,7 +17565,7 @@
         <v>1591.4327039999996</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H11" s="8">
         <f>SUM(Table36[Total Rent cost per year])</f>
         <v>5936</v>
@@ -17651,10 +17576,10 @@
       </c>
       <c r="W11" s="8">
         <f>SUBTOTAL(109,Table36[FM Cost])</f>
-        <v>1659.5866300979997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+        <v>1660.8610195679996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
@@ -17683,7 +17608,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <f>171056.493544313/1000</f>
         <v>171.05649354431301</v>
@@ -17695,7 +17620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <f>85582.6331149716/1000</f>
         <v>85.5826331149716</v>
@@ -17707,7 +17632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <f>(384090.367674523+20*30000)/1000</f>
         <v>984.09036767452301</v>
@@ -17722,13 +17647,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M18" s="8">
         <f>Table36[[#Totals],[Total Rent cost per year]]+Table36[[#Totals],[Energy Cost per year in CU]]+Table36[[#Totals],[FM Cost]]+I23</f>
-        <v>10658.47444002984</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>10659.74882949984</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>41</v>
       </c>
@@ -17757,7 +17682,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>43</v>
       </c>
@@ -17790,7 +17715,7 @@
         <v>78.220243988925176</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>44</v>
       </c>
@@ -17826,7 +17751,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>64</v>
       </c>
@@ -17866,7 +17791,7 @@
         <v>5936</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I23" s="8">
         <f>SUM(I20:I22)</f>
         <v>573.12145089184014</v>
@@ -17879,48 +17804,52 @@
         <v>2489.7663590400002</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L24" s="8" t="s">
         <v>96</v>
       </c>
       <c r="M24" s="8">
         <f>Table36[[#Totals],[FM Cost]]+I23</f>
-        <v>2232.7080809898398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2233.9824704598395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L25" s="8" t="s">
         <v>97</v>
       </c>
       <c r="M25" s="8">
         <f>0.05*SUM(M22:M24)</f>
-        <v>532.92372200149202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>532.98744147499201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L26" s="8" t="s">
         <v>98</v>
       </c>
       <c r="M26" s="8">
         <f>0.07*SUM(M22:M24)</f>
-        <v>746.09321080208895</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>746.18241806498884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M27" s="8">
         <f>SUM(M22:M26)</f>
-        <v>11937.491372833421</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <v>11938.918689039821</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -17929,37 +17858,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="P24" sqref="P24:P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="8" customWidth="1"/>
     <col min="5" max="8" width="18" style="8" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="21" style="8" customWidth="1"/>
     <col min="11" max="11" width="20" style="8" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" style="8" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="24.109375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="26.44140625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="21.109375" style="8" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" style="8" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" style="8" customWidth="1"/>
-    <col min="20" max="20" width="7.5546875" style="8" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" style="8"/>
-    <col min="22" max="23" width="16.6640625" style="8" customWidth="1"/>
-    <col min="24" max="25" width="8.88671875" style="8"/>
-    <col min="26" max="26" width="14.44140625" style="8" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="8"/>
+    <col min="12" max="12" width="17.140625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="8" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" style="8" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" style="8"/>
+    <col min="22" max="23" width="16.7109375" style="8" customWidth="1"/>
+    <col min="24" max="25" width="8.85546875" style="8"/>
+    <col min="26" max="26" width="14.42578125" style="8" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -18042,7 +17971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -18136,7 +18065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -18230,7 +18159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -18324,7 +18253,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -18416,7 +18345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -18509,7 +18438,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -18603,7 +18532,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -18618,18 +18547,18 @@
         <v>5000</v>
       </c>
       <c r="E8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="8">
         <f>Table27[[#This Row],[Floor Space per component]]*Table27[[#This Row],[Quantity]]</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8">
         <v>4</v>
       </c>
       <c r="H8" s="2">
         <f>Table27[[#This Row],[Rent per sqm per year]]*Table27[[#This Row],[Total Floor Space]]</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="8">
         <v>2488</v>
@@ -18697,7 +18626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -18790,7 +18719,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
@@ -18813,10 +18742,11 @@
         <v>5000</v>
       </c>
       <c r="G10" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <f>Table27[[#This Row],[Rent per sqm per year]]*Table27[[#This Row],[Total Floor Space]]</f>
+        <v>10000</v>
       </c>
       <c r="I10" s="8">
         <v>0</v>
@@ -18828,12 +18758,12 @@
         <v>5000</v>
       </c>
       <c r="L10" s="8">
-        <f>50*Table27[[#This Row],[Quantity]]</f>
-        <v>250000</v>
+        <f>25*Table27[[#This Row],[Quantity]]</f>
+        <v>125000</v>
       </c>
       <c r="M10" s="8">
         <f>Table27[[#This Row],[Energy consumption in W]]*24*365/1000</f>
-        <v>2190000</v>
+        <v>1095000</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" si="0"/>
@@ -18841,7 +18771,7 @@
       </c>
       <c r="O10" s="2">
         <f>Table27[[#This Row],[Yearly Energy Consumption in kWh]]*Table27[[#This Row],[CU/kWh]]</f>
-        <v>13350.240000000002</v>
+        <v>6675.1200000000008</v>
       </c>
       <c r="P10" s="8">
         <v>2</v>
@@ -18884,22 +18814,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B11" s="27"/>
-      <c r="H11" s="28">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B11" s="31"/>
+      <c r="H11" s="32">
         <f>SUM(Table27[Total Rent cost per year])</f>
-        <v>23074</v>
-      </c>
-      <c r="O11" s="28">
+        <v>13074</v>
+      </c>
+      <c r="O11" s="32">
         <f>SUM(Table27[Energy Cost per year in CU])</f>
-        <v>17790.588565056001</v>
-      </c>
-      <c r="W11" s="28">
+        <v>11115.468565056002</v>
+      </c>
+      <c r="W11" s="32">
         <f>SUM(Table27[FM Cost])+L20</f>
         <v>20896.88245642011</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>41</v>
       </c>
@@ -18937,7 +18867,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
@@ -18982,7 +18912,7 @@
         <v>78.220243988925162</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>44</v>
       </c>
@@ -19026,7 +18956,7 @@
         <v>39.297377489463415</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>45</v>
       </c>
@@ -19070,18 +19000,18 @@
         <v>317.30646582172432</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q18" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q19" s="8">
         <f>Table27[[#Totals],[Total Rent cost per year]]+Table27[[#Totals],[Energy Cost per year in CU]]+Table27[[#Totals],[FM Cost]]+L20</f>
-        <v>62196.295108776227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+        <v>45521.175108776224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K20" s="8" t="s">
         <v>53</v>
       </c>
@@ -19090,12 +19020,12 @@
         <v>434.82408730011286</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O22" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O23" s="8" t="s">
         <v>99</v>
       </c>
@@ -19103,25 +19033,25 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O24" s="8" t="s">
         <v>94</v>
       </c>
       <c r="P24" s="8">
         <f>Table27[[#Totals],[Total Rent cost per year]]</f>
-        <v>23074</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+        <v>13074</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O25" s="8" t="s">
         <v>95</v>
       </c>
       <c r="P25" s="8">
         <f>Table27[[#Totals],[Energy Cost per year in CU]]</f>
-        <v>17790.588565056001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+        <v>11115.468565056002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O26" s="8" t="s">
         <v>96</v>
       </c>
@@ -19130,25 +19060,25 @@
         <v>21331.706543720222</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O27" s="8" t="s">
         <v>97</v>
       </c>
       <c r="P27" s="8">
         <f>0.05*SUM(P24:P26)</f>
-        <v>3109.8147554388111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2276.0587554388112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O28" s="8" t="s">
         <v>98</v>
       </c>
       <c r="P28" s="8">
         <f>0.07*SUM(P24:P26)</f>
-        <v>4353.7406576143358</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3186.482257614336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" s="9">
         <v>171056.49354431301</v>
       </c>
@@ -19160,7 +19090,7 @@
       </c>
       <c r="P29" s="8">
         <f>SUM(P24:P28)</f>
-        <v>69659.850521829372</v>
+        <v>50983.71612182937</v>
       </c>
       <c r="S29" s="8">
         <v>11727.88547395296</v>
@@ -19168,9 +19098,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -19179,43 +19113,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="M21" sqref="M21:M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" style="8" customWidth="1"/>
     <col min="6" max="6" width="25" style="8" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.5546875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="8"/>
-    <col min="12" max="12" width="25.6640625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="34.109375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="26.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="8"/>
+    <col min="12" max="12" width="25.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="34.140625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" style="8" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="17.88671875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" style="8" customWidth="1"/>
     <col min="19" max="19" width="19" style="8" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" style="8" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" style="8" customWidth="1"/>
     <col min="22" max="22" width="15" style="8" customWidth="1"/>
-    <col min="23" max="23" width="19.33203125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="23.5546875" style="8" customWidth="1"/>
-    <col min="25" max="25" width="21.33203125" style="8" customWidth="1"/>
-    <col min="26" max="26" width="16.109375" style="8" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" style="8" customWidth="1"/>
+    <col min="24" max="24" width="23.5703125" style="8" customWidth="1"/>
+    <col min="25" max="25" width="21.28515625" style="8" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" style="8" customWidth="1"/>
     <col min="27" max="27" width="11" style="8" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="8"/>
+    <col min="28" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -19298,7 +19232,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -19382,7 +19316,7 @@
         <v>1.8406932479999998</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -19465,7 +19399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -19548,7 +19482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -19630,7 +19564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -19714,7 +19648,7 @@
         <v>1.59682536</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -19797,7 +19731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -19880,7 +19814,7 @@
         <v>6.2947607999999988</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -19902,11 +19836,11 @@
         <v>5000</v>
       </c>
       <c r="G9" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
         <f>Table38[[#This Row],[Rent per sqm per year]]*Table38[[#This Row],[Total Floor Space]]</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I9" s="8">
         <f>(0.5+1/6*8)*Table38[[#This Row],[Quantity]]</f>
@@ -19964,7 +19898,7 @@
         <v>20160.045000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -20047,10 +19981,10 @@
         <v>265.23878399999995</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H11" s="8">
         <f>SUM(Table38[Total Rent cost per year])</f>
-        <v>25936</v>
+        <v>5936</v>
       </c>
       <c r="O11" s="8">
         <f>SUBTOTAL(109,Table38[Energy Cost per year in CU])</f>
@@ -20061,7 +19995,7 @@
         <v>20435.016063408002</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
@@ -20090,7 +20024,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <f>171056.493544313/1000</f>
         <v>171.05649354431301</v>
@@ -20102,7 +20036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <f>85582.6331149716/1000</f>
         <v>85.5826331149716</v>
@@ -20114,7 +20048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <f>384090.367674523/1000</f>
         <v>384.09036767452295</v>
@@ -20129,13 +20063,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M18" s="8">
         <f>Table38[[#Totals],[Total Rent cost per year]]+Table38[[#Totals],[Energy Cost per year in CU]]+Table38[[#Totals],[FM Cost]]+I23</f>
-        <v>62613.270892859844</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>42613.270892859844</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>41</v>
       </c>
@@ -20164,7 +20098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>43</v>
       </c>
@@ -20203,7 +20137,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>44</v>
       </c>
@@ -20240,10 +20174,10 @@
       </c>
       <c r="M21" s="8">
         <f>Table38[[#Totals],[Total Rent cost per year]]</f>
-        <v>25936</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>64</v>
       </c>
@@ -20283,7 +20217,7 @@
         <v>15946.915080960001</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I23" s="8">
         <f>SUM(I20:I22)</f>
         <v>295.33974849184011</v>
@@ -20296,40 +20230,44 @@
         <v>20730.355811899841</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L24" s="8" t="s">
         <v>97</v>
       </c>
       <c r="M24" s="8">
         <f>0.05*SUM(M21:M23)</f>
-        <v>3130.6635446429923</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2130.6635446429923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L25" s="8" t="s">
         <v>98</v>
       </c>
       <c r="M25" s="8">
         <f>0.07*SUM(M21:M23)</f>
-        <v>4382.9289625001893</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2982.9289625001893</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M26" s="8">
         <f>SUM(Table1416[Cost])</f>
-        <v>70126.863400003014</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <v>47726.863400003029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -20338,39 +20276,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M21" sqref="M21:M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="8" customWidth="1"/>
     <col min="5" max="5" width="26" style="8" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="24" style="8" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="8"/>
-    <col min="12" max="12" width="24.44140625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="32.33203125" style="8" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="8"/>
+    <col min="12" max="12" width="24.42578125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="32.28515625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="8" customWidth="1"/>
     <col min="15" max="15" width="25" style="8" customWidth="1"/>
-    <col min="16" max="16" width="23.77734375" style="8" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" style="8" customWidth="1"/>
-    <col min="20" max="20" width="22.109375" style="8" customWidth="1"/>
-    <col min="21" max="21" width="18.21875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="14.21875" style="8" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" style="8" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="8"/>
+    <col min="16" max="16" width="23.7109375" style="8" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" style="8" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" style="8" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" style="8" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="8" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="8" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -20444,7 +20382,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
@@ -20525,7 +20463,7 @@
         <v>5.1130367999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -20608,7 +20546,7 @@
         <v>0.43274399999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
@@ -20690,7 +20628,7 @@
         <v>0.43274399999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
@@ -20771,7 +20709,7 @@
         <v>0.43274399999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
@@ -20853,7 +20791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>3</v>
       </c>
@@ -20933,7 +20871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
@@ -21015,7 +20953,7 @@
         <v>2.6613756</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>13</v>
       </c>
@@ -21029,18 +20967,18 @@
         <v>5000</v>
       </c>
       <c r="E9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8">
         <v>4</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I9" s="8">
         <f>D9*(0.5+(1/6*8))</f>
@@ -21097,7 +21035,7 @@
         <v>20160.045000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>13</v>
       </c>
@@ -21179,7 +21117,7 @@
         <v>265.23878399999995</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -21188,7 +21126,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25">
         <f>SUBTOTAL(109,Table19[Total Rent cost per year])</f>
-        <v>27314</v>
+        <v>7314</v>
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
@@ -21212,12 +21150,12 @@
         <v>20429.294521968004</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M16" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>41</v>
       </c>
@@ -21250,10 +21188,10 @@
       </c>
       <c r="M17" s="8">
         <f>Table19[[#Totals],[Total Rent cost per year]]+Table19[[#Totals],[Energy Cost per year in CU]]+Table19[[#Totals],[FM Cost]]+J20</f>
-        <v>63053.829615365721</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>43053.829615365721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
@@ -21290,7 +21228,7 @@
         <v>33.207515009141716</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>64</v>
       </c>
@@ -21327,7 +21265,7 @@
         <v>304.76641358857131</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J20" s="8">
         <f>SUM(J18:J19)</f>
         <v>337.97392859771304</v>
@@ -21339,16 +21277,16 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L21" s="8" t="s">
         <v>94</v>
       </c>
       <c r="M21" s="8">
         <f>Table19[[#Totals],[Total Rent cost per year]]</f>
-        <v>27314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L22" s="8" t="s">
         <v>95</v>
       </c>
@@ -21357,7 +21295,7 @@
         <v>14972.561164800003</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L23" s="8" t="s">
         <v>96</v>
       </c>
@@ -21366,35 +21304,39 @@
         <v>20767.268450565716</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L24" s="8" t="s">
         <v>97</v>
       </c>
       <c r="M24" s="8">
         <f>0.05*SUM(M21:M23)</f>
-        <v>3152.6914807682861</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2152.6914807682861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L25" s="8" t="s">
         <v>98</v>
       </c>
       <c r="M25" s="8">
         <f>0.07*SUM(M21:M23)</f>
-        <v>4413.768073075601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3013.7680730756006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M26" s="8">
         <f>SUM(Table141617[Cost])</f>
-        <v>70620.289169209602</v>
+        <v>48220.289169209609</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tumlknexpectimax/excel_data/opex_calc.xlsx
+++ b/tumlknexpectimax/excel_data/opex_calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="165" windowWidth="27795" windowHeight="14055"/>
+    <workbookView xWindow="480" yWindow="165" windowWidth="27795" windowHeight="14055" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="FTTC_GPON_25_PIVOT" sheetId="4" r:id="rId1"/>
@@ -739,6 +739,43 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -772,6 +809,43 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -781,6 +855,43 @@
           <color theme="4" tint="0.39997558519241921"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1032,217 +1143,15 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="5"/>
         </top>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1268,874 +1177,6 @@
           <color theme="5"/>
         </top>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2183,6 +1224,31 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2194,6 +1260,33 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2623,6 +1716,183 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2649,6 +1919,31 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2696,6 +1991,31 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2707,6 +2027,33 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2738,6 +2085,189 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2795,6 +2325,37 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2804,6 +2365,37 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2907,6 +2499,75 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -2947,6 +2608,31 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3085,6 +2771,189 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3117,6 +2986,37 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3176,6 +3076,37 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -3188,6 +3119,75 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3205,7 +3205,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3233,11 +3233,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="93020544"/>
-        <c:axId val="93022080"/>
+        <c:axId val="41836032"/>
+        <c:axId val="80007104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93020544"/>
+        <c:axId val="41836032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3246,7 +3246,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93022080"/>
+        <c:crossAx val="80007104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3254,7 +3254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93022080"/>
+        <c:axId val="80007104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3265,7 +3265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93020544"/>
+        <c:crossAx val="41836032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3290,7 +3290,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3943,11 +3943,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="187159296"/>
-        <c:axId val="187161216"/>
+        <c:axId val="155347456"/>
+        <c:axId val="62621376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187159296"/>
+        <c:axId val="155347456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4023,10 +4023,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187161216"/>
+        <c:crossAx val="62621376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4034,7 +4034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187161216"/>
+        <c:axId val="62621376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4132,10 +4132,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187159296"/>
+        <c:crossAx val="155347456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4175,7 +4175,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4205,7 +4205,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4781,7 +4781,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4822,7 +4822,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2AF6944-48DA-45D6-93A4-52064D7B7BB8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2AF6944-48DA-45D6-93A4-52064D7B7BB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5336,7 +5336,7 @@
       <calculatedColumnFormula>Table2[[#This Row],[Floor Space per component]]*Table2[[#This Row],[Quantity]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="26" name="Rent per sqm per year"/>
-    <tableColumn id="27" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="110" dataCellStyle="Good">
+    <tableColumn id="27" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="164" dataCellStyle="Good">
       <calculatedColumnFormula>Table2[[#This Row],[Rent per sqm per year]]*Table2[[#This Row],[Total Floor Space]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table2[Total Rent cost per year])</totalsRowFormula>
     </tableColumn>
@@ -5350,7 +5350,7 @@
     <tableColumn id="10" name="CU/kWh">
       <calculatedColumnFormula>0.3048/50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Energy Cost per year in CU" totalsRowFunction="custom" totalsRowDxfId="109" dataCellStyle="Good">
+    <tableColumn id="11" name="Energy Cost per year in CU" totalsRowFunction="custom" totalsRowDxfId="163" dataCellStyle="Good">
       <calculatedColumnFormula>Table2[[#This Row],[Yearly Energy Consumption in kWh]]*Table2[[#This Row],[CU/kWh]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table2[Energy Cost per year in CU])</totalsRowFormula>
     </tableColumn>
@@ -5369,7 +5369,7 @@
     <tableColumn id="18" name="Cost per hour">
       <calculatedColumnFormula>190/50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="FM Cost" totalsRowFunction="custom" totalsRowDxfId="108" dataCellStyle="Good">
+    <tableColumn id="19" name="FM Cost" totalsRowFunction="custom" totalsRowDxfId="162" dataCellStyle="Good">
       <calculatedColumnFormula>Table2[[#This Row],[Cost per hour]]*Table2[[#This Row],[Total Time to Repair(h)]]*Table2[[#This Row],[Failures per year]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table2[FM Cost])+L20</totalsRowFormula>
     </tableColumn>
@@ -5390,44 +5390,44 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table19" displayName="Table19" ref="B1:W11" totalsRowCount="1">
   <autoFilter ref="B1:W10"/>
   <tableColumns count="22">
-    <tableColumn id="1" name="Component Name" dataDxfId="152" totalsRowDxfId="81"/>
-    <tableColumn id="2" name="Cost per Unit (OASE)" dataDxfId="151" totalsRowDxfId="80"/>
-    <tableColumn id="3" name="Quantity" dataDxfId="150" totalsRowDxfId="79"/>
-    <tableColumn id="4" name="Floor Space per component" totalsRowDxfId="78"/>
-    <tableColumn id="5" name="Total Floor Space" totalsRowDxfId="77">
+    <tableColumn id="1" name="Component Name" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="2" name="Cost per Unit (OASE)" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="3" name="Quantity" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="4" name="Floor Space per component" totalsRowDxfId="117"/>
+    <tableColumn id="5" name="Total Floor Space" totalsRowDxfId="116">
       <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rent per sqm per year" totalsRowDxfId="76"/>
-    <tableColumn id="7" name="Total Rent cost per year" totalsRowFunction="sum" totalsRowDxfId="75">
+    <tableColumn id="6" name="Rent per sqm per year" totalsRowDxfId="115"/>
+    <tableColumn id="7" name="Total Rent cost per year" totalsRowFunction="sum" totalsRowDxfId="114">
       <calculatedColumnFormula>G2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Installation Time in hours" totalsRowDxfId="74"/>
-    <tableColumn id="9" name="MTTR" totalsRowDxfId="73"/>
-    <tableColumn id="10" name="FIT" totalsRowDxfId="72"/>
-    <tableColumn id="11" name="Energy consumption in W" totalsRowDxfId="71"/>
-    <tableColumn id="12" name="Yearly Energy Consumption in kWh" totalsRowDxfId="70">
+    <tableColumn id="8" name="Installation Time in hours" totalsRowDxfId="113"/>
+    <tableColumn id="9" name="MTTR" totalsRowDxfId="112"/>
+    <tableColumn id="10" name="FIT" totalsRowDxfId="111"/>
+    <tableColumn id="11" name="Energy consumption in W" totalsRowDxfId="110"/>
+    <tableColumn id="12" name="Yearly Energy Consumption in kWh" totalsRowDxfId="109">
       <calculatedColumnFormula>Table19[[#This Row],[Energy consumption in W]]*24*365/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="CU/kWh" totalsRowDxfId="69">
+    <tableColumn id="13" name="CU/kWh" totalsRowDxfId="108">
       <calculatedColumnFormula>0.3048/50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="68">
+    <tableColumn id="14" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="107">
       <calculatedColumnFormula>Table19[[#This Row],[Yearly Energy Consumption in kWh]]*Table19[[#This Row],[CU/kWh]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Mean dist in km from CO" totalsRowDxfId="67"/>
-    <tableColumn id="16" name="Avg Travel Speed" totalsRowDxfId="66"/>
-    <tableColumn id="17" name="Failures per year" totalsRowDxfId="65">
+    <tableColumn id="15" name="Mean dist in km from CO" totalsRowDxfId="106"/>
+    <tableColumn id="16" name="Avg Travel Speed" totalsRowDxfId="105"/>
+    <tableColumn id="17" name="Failures per year" totalsRowDxfId="104">
       <calculatedColumnFormula>Table19[[#This Row],[Quantity]]*Table19[[#This Row],[FIT]]*24*365/1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Twice Travel Time" totalsRowDxfId="64">
+    <tableColumn id="18" name="Twice Travel Time" totalsRowDxfId="103">
       <calculatedColumnFormula>2*Table19[[#This Row],[Mean dist in km from CO]]/Table19[[#This Row],[Avg Travel Speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Total Time to Repair(h)" totalsRowDxfId="63">
+    <tableColumn id="19" name="Total Time to Repair(h)" totalsRowDxfId="102">
       <calculatedColumnFormula>Table19[[#This Row],[MTTR]]+Table19[[#This Row],[Twice Travel Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="No. Of technicians" totalsRowDxfId="62"/>
-    <tableColumn id="21" name="Cost per hour" totalsRowDxfId="61"/>
-    <tableColumn id="22" name="FM Cost" totalsRowFunction="custom" totalsRowDxfId="60">
+    <tableColumn id="20" name="No. Of technicians" totalsRowDxfId="101"/>
+    <tableColumn id="21" name="Cost per hour" totalsRowDxfId="100"/>
+    <tableColumn id="22" name="FM Cost" totalsRowFunction="custom" totalsRowDxfId="99">
       <calculatedColumnFormula>Table19[[#This Row],[Cost per hour]]*Table19[[#This Row],[No. Of technicians]]*Table19[[#This Row],[Total Time to Repair(h)]]*Table19[[#This Row],[Failures per year]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table19[FM Cost])</totalsRowFormula>
     </tableColumn>
@@ -5517,46 +5517,46 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:W10" totalsRowCount="1">
   <autoFilter ref="A1:W9"/>
   <tableColumns count="23">
-    <tableColumn id="1" name="Position of component" dataDxfId="149" totalsRowDxfId="59"/>
-    <tableColumn id="2" name="Component Name" dataDxfId="148" totalsRowDxfId="58"/>
-    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="147" totalsRowDxfId="57"/>
-    <tableColumn id="4" name="Quantity" dataDxfId="146" totalsRowDxfId="56"/>
-    <tableColumn id="5" name="Floor Space per component" totalsRowDxfId="55"/>
-    <tableColumn id="6" name="Total Floor Space" totalsRowDxfId="54">
+    <tableColumn id="1" name="Position of component" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="2" name="Component Name" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="4" name="Quantity" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="5" name="Floor Space per component" totalsRowDxfId="90"/>
+    <tableColumn id="6" name="Total Floor Space" totalsRowDxfId="89">
       <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Rent per sqm per year" totalsRowDxfId="53"/>
-    <tableColumn id="8" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="52">
+    <tableColumn id="7" name="Rent per sqm per year" totalsRowDxfId="88"/>
+    <tableColumn id="8" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="87">
       <calculatedColumnFormula>Table10[[#This Row],[Total Floor Space]]*Table10[[#This Row],[Rent per sqm per year]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table10[Total Rent cost per year])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="Installation Time in hours" totalsRowDxfId="51"/>
-    <tableColumn id="10" name="MTTR" totalsRowDxfId="50"/>
-    <tableColumn id="11" name="FIT" totalsRowDxfId="49"/>
-    <tableColumn id="12" name="Energy consumption in W" totalsRowDxfId="48"/>
-    <tableColumn id="13" name="Yearly Energy Consumption in kWh" totalsRowDxfId="47">
+    <tableColumn id="9" name="Installation Time in hours" totalsRowDxfId="86"/>
+    <tableColumn id="10" name="MTTR" totalsRowDxfId="85"/>
+    <tableColumn id="11" name="FIT" totalsRowDxfId="84"/>
+    <tableColumn id="12" name="Energy consumption in W" totalsRowDxfId="83"/>
+    <tableColumn id="13" name="Yearly Energy Consumption in kWh" totalsRowDxfId="82">
       <calculatedColumnFormula>Table10[[#This Row],[Energy consumption in W]]*24*365/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="CU/kWh" totalsRowDxfId="46">
+    <tableColumn id="14" name="CU/kWh" totalsRowDxfId="81">
       <calculatedColumnFormula>0.3084/50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="45">
+    <tableColumn id="15" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="80">
       <calculatedColumnFormula>Table10[[#This Row],[Yearly Energy Consumption in kWh]]*Table10[[#This Row],[CU/kWh]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Mean dist in km from CO" totalsRowDxfId="44"/>
-    <tableColumn id="17" name="Avg Travel Speed" totalsRowDxfId="43"/>
-    <tableColumn id="18" name="Failures per year" totalsRowDxfId="42">
+    <tableColumn id="16" name="Mean dist in km from CO" totalsRowDxfId="79"/>
+    <tableColumn id="17" name="Avg Travel Speed" totalsRowDxfId="78"/>
+    <tableColumn id="18" name="Failures per year" totalsRowDxfId="77">
       <calculatedColumnFormula>Table10[[#This Row],[FIT]]*Table10[[#This Row],[Quantity]]*24*365/1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Twice Travel Time" totalsRowDxfId="41">
+    <tableColumn id="19" name="Twice Travel Time" totalsRowDxfId="76">
       <calculatedColumnFormula>2*Table10[[#This Row],[Mean dist in km from CO]]/Table10[[#This Row],[Avg Travel Speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Total Time to Repair(h)" totalsRowDxfId="40">
+    <tableColumn id="20" name="Total Time to Repair(h)" totalsRowDxfId="75">
       <calculatedColumnFormula>Table10[[#This Row],[MTTR]]+Table10[[#This Row],[Twice Travel Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="No. Of technicians" totalsRowDxfId="39"/>
-    <tableColumn id="22" name="Cost per hour" totalsRowDxfId="38"/>
-    <tableColumn id="23" name="FM Cost" totalsRowFunction="sum" totalsRowDxfId="37">
+    <tableColumn id="21" name="No. Of technicians" totalsRowDxfId="74"/>
+    <tableColumn id="22" name="Cost per hour" totalsRowDxfId="73"/>
+    <tableColumn id="23" name="FM Cost" totalsRowFunction="sum" totalsRowDxfId="72">
       <calculatedColumnFormula>Table10[[#This Row],[Failures per year]]*Table10[[#This Row],[Total Time to Repair(h)]]*Table10[[#This Row],[No. Of technicians]]*Table10[[#This Row],[Cost per hour]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5581,46 +5581,46 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1012" displayName="Table1012" ref="A1:W10" totalsRowCount="1">
   <autoFilter ref="A1:W9"/>
   <tableColumns count="23">
-    <tableColumn id="1" name="Position of component" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="2" name="Component Name" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="4" name="Quantity" dataDxfId="139" totalsRowDxfId="138"/>
-    <tableColumn id="5" name="Floor Space per component" totalsRowDxfId="137"/>
-    <tableColumn id="6" name="Total Floor Space" totalsRowDxfId="136">
+    <tableColumn id="1" name="Position of component" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="2" name="Component Name" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="4" name="Quantity" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="5" name="Floor Space per component" totalsRowDxfId="63"/>
+    <tableColumn id="6" name="Total Floor Space" totalsRowDxfId="62">
       <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Rent per sqm per year" totalsRowDxfId="135"/>
-    <tableColumn id="8" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="134">
+    <tableColumn id="7" name="Rent per sqm per year" totalsRowDxfId="61"/>
+    <tableColumn id="8" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="60">
       <calculatedColumnFormula>Table1012[[#This Row],[Total Floor Space]]*Table1012[[#This Row],[Rent per sqm per year]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1012[Total Rent cost per year])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="Installation Time in hours" totalsRowDxfId="133"/>
-    <tableColumn id="10" name="MTTR" totalsRowDxfId="132"/>
-    <tableColumn id="11" name="FIT" totalsRowDxfId="131"/>
-    <tableColumn id="12" name="Energy consumption in W" totalsRowDxfId="130"/>
-    <tableColumn id="13" name="Yearly Energy Consumption in kWh" totalsRowDxfId="129">
+    <tableColumn id="9" name="Installation Time in hours" totalsRowDxfId="59"/>
+    <tableColumn id="10" name="MTTR" totalsRowDxfId="58"/>
+    <tableColumn id="11" name="FIT" totalsRowDxfId="57"/>
+    <tableColumn id="12" name="Energy consumption in W" totalsRowDxfId="56"/>
+    <tableColumn id="13" name="Yearly Energy Consumption in kWh" totalsRowDxfId="55">
       <calculatedColumnFormula>Table1012[[#This Row],[Energy consumption in W]]*24*365/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="CU/kWh" totalsRowDxfId="128">
+    <tableColumn id="14" name="CU/kWh" totalsRowDxfId="54">
       <calculatedColumnFormula>0.3084/50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="127">
+    <tableColumn id="15" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="53">
       <calculatedColumnFormula>Table1012[[#This Row],[Yearly Energy Consumption in kWh]]*Table1012[[#This Row],[CU/kWh]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Mean dist in km from CO" totalsRowDxfId="126"/>
-    <tableColumn id="17" name="Avg Travel Speed" totalsRowDxfId="125"/>
-    <tableColumn id="18" name="Failures per year" totalsRowDxfId="124">
+    <tableColumn id="16" name="Mean dist in km from CO" totalsRowDxfId="52"/>
+    <tableColumn id="17" name="Avg Travel Speed" totalsRowDxfId="51"/>
+    <tableColumn id="18" name="Failures per year" totalsRowDxfId="50">
       <calculatedColumnFormula>Table1012[[#This Row],[FIT]]*Table1012[[#This Row],[Quantity]]*24*365/1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Twice Travel Time" totalsRowDxfId="123">
+    <tableColumn id="19" name="Twice Travel Time" totalsRowDxfId="49">
       <calculatedColumnFormula>2*Table1012[[#This Row],[Mean dist in km from CO]]/Table1012[[#This Row],[Avg Travel Speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Total Time to Repair(h)" totalsRowDxfId="122">
+    <tableColumn id="20" name="Total Time to Repair(h)" totalsRowDxfId="48">
       <calculatedColumnFormula>Table1012[[#This Row],[MTTR]]+Table1012[[#This Row],[Twice Travel Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="No. Of technicians" totalsRowDxfId="121"/>
-    <tableColumn id="22" name="Cost per hour" totalsRowDxfId="120"/>
-    <tableColumn id="23" name="FM Cost" totalsRowFunction="sum" totalsRowDxfId="119">
+    <tableColumn id="21" name="No. Of technicians" totalsRowDxfId="47"/>
+    <tableColumn id="22" name="Cost per hour" totalsRowDxfId="46"/>
+    <tableColumn id="23" name="FM Cost" totalsRowFunction="sum" totalsRowDxfId="45">
       <calculatedColumnFormula>Table1012[[#This Row],[Failures per year]]*Table1012[[#This Row],[Total Time to Repair(h)]]*Table1012[[#This Row],[No. Of technicians]]*Table1012[[#This Row],[Cost per hour]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5648,7 +5648,7 @@
     <tableColumn id="1" name="Position of component"/>
     <tableColumn id="2" name="Component Name"/>
     <tableColumn id="3" name="Cost per Unit (OASE)"/>
-    <tableColumn id="4" name="Quantity" dataDxfId="118"/>
+    <tableColumn id="4" name="Quantity" dataDxfId="44"/>
     <tableColumn id="5" name="Floor Space per component"/>
     <tableColumn id="6" name="Total Floor Space">
       <calculatedColumnFormula>Table913[[#This Row],[Floor Space per component]]*Table913[[#This Row],[Quantity]]</calculatedColumnFormula>
@@ -5766,46 +5766,46 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1014" displayName="Table1014" ref="A1:W10" totalsRowCount="1">
   <autoFilter ref="A1:W9"/>
   <tableColumns count="23">
-    <tableColumn id="1" name="Position of component" dataDxfId="117" totalsRowDxfId="36"/>
-    <tableColumn id="2" name="Component Name" dataDxfId="116" totalsRowDxfId="35"/>
-    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="115" totalsRowDxfId="34"/>
-    <tableColumn id="4" name="Quantity" dataDxfId="114" totalsRowDxfId="33"/>
-    <tableColumn id="5" name="Floor Space per component" totalsRowDxfId="32"/>
-    <tableColumn id="6" name="Total Floor Space" totalsRowDxfId="31">
+    <tableColumn id="1" name="Position of component" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="2" name="Component Name" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="4" name="Quantity" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="5" name="Floor Space per component" totalsRowDxfId="35"/>
+    <tableColumn id="6" name="Total Floor Space" totalsRowDxfId="34">
       <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Rent per sqm per year" totalsRowDxfId="30"/>
-    <tableColumn id="8" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="29">
+    <tableColumn id="7" name="Rent per sqm per year" totalsRowDxfId="33"/>
+    <tableColumn id="8" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="32">
       <calculatedColumnFormula>Table1014[[#This Row],[Total Floor Space]]*Table1014[[#This Row],[Rent per sqm per year]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1014[Total Rent cost per year])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="Installation Time in hours" totalsRowDxfId="28"/>
-    <tableColumn id="10" name="MTTR" totalsRowDxfId="27"/>
-    <tableColumn id="11" name="FIT" totalsRowDxfId="26"/>
-    <tableColumn id="12" name="Energy consumption in W" totalsRowDxfId="25"/>
-    <tableColumn id="13" name="Yearly Energy Consumption in kWh" totalsRowDxfId="24">
+    <tableColumn id="9" name="Installation Time in hours" totalsRowDxfId="31"/>
+    <tableColumn id="10" name="MTTR" totalsRowDxfId="30"/>
+    <tableColumn id="11" name="FIT" totalsRowDxfId="29"/>
+    <tableColumn id="12" name="Energy consumption in W" totalsRowDxfId="28"/>
+    <tableColumn id="13" name="Yearly Energy Consumption in kWh" totalsRowDxfId="27">
       <calculatedColumnFormula>Table1014[[#This Row],[Energy consumption in W]]*24*365/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="CU/kWh" totalsRowDxfId="23">
+    <tableColumn id="14" name="CU/kWh" totalsRowDxfId="26">
       <calculatedColumnFormula>0.3084/50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="22">
+    <tableColumn id="15" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="25">
       <calculatedColumnFormula>Table1014[[#This Row],[Yearly Energy Consumption in kWh]]*Table1014[[#This Row],[CU/kWh]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Mean dist in km from CO" totalsRowDxfId="21"/>
-    <tableColumn id="17" name="Avg Travel Speed" totalsRowDxfId="20"/>
-    <tableColumn id="18" name="Failures per year" totalsRowDxfId="19">
+    <tableColumn id="16" name="Mean dist in km from CO" totalsRowDxfId="24"/>
+    <tableColumn id="17" name="Avg Travel Speed" totalsRowDxfId="23"/>
+    <tableColumn id="18" name="Failures per year" totalsRowDxfId="22">
       <calculatedColumnFormula>Table1014[[#This Row],[FIT]]*Table1014[[#This Row],[Quantity]]*24*365/1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Twice Travel Time" totalsRowDxfId="18">
+    <tableColumn id="19" name="Twice Travel Time" totalsRowDxfId="21">
       <calculatedColumnFormula>2*Table1014[[#This Row],[Mean dist in km from CO]]/Table1014[[#This Row],[Avg Travel Speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Total Time to Repair(h)" totalsRowDxfId="17">
+    <tableColumn id="20" name="Total Time to Repair(h)" totalsRowDxfId="20">
       <calculatedColumnFormula>Table1014[[#This Row],[MTTR]]+Table1014[[#This Row],[Twice Travel Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="No. Of technicians" totalsRowDxfId="16"/>
-    <tableColumn id="22" name="Cost per hour" totalsRowDxfId="15"/>
-    <tableColumn id="23" name="FM Cost" totalsRowFunction="sum" totalsRowDxfId="14">
+    <tableColumn id="21" name="No. Of technicians" totalsRowDxfId="19"/>
+    <tableColumn id="22" name="Cost per hour" totalsRowDxfId="18"/>
+    <tableColumn id="23" name="FM Cost" totalsRowFunction="sum" totalsRowDxfId="17">
       <calculatedColumnFormula>Table1014[[#This Row],[Failures per year]]*Table1014[[#This Row],[Total Time to Repair(h)]]*Table1014[[#This Row],[No. Of technicians]]*Table1014[[#This Row],[Cost per hour]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5830,18 +5830,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table22" displayName="Table22" ref="D27:Q33" totalsRowCount="1">
   <autoFilter ref="D27:Q32"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Component" totalsRowDxfId="13"/>
-    <tableColumn id="2" name="FTTC_GPON_25" totalsRowFunction="custom" totalsRowDxfId="12">
+    <tableColumn id="1" name="Component" totalsRowDxfId="16"/>
+    <tableColumn id="2" name="FTTC_GPON_25" totalsRowFunction="custom" totalsRowDxfId="15">
       <totalsRowFormula>SUM(Table22[FTTC_GPON_25])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="FTTB_XGPON_50" totalsRowFunction="sum" totalsRowDxfId="11"/>
-    <tableColumn id="4" name="FTTB_DWDM_50" totalsRowFunction="sum" totalsRowDxfId="10"/>
-    <tableColumn id="5" name="FTTH_DWDM_100" totalsRowFunction="sum" totalsRowDxfId="9"/>
-    <tableColumn id="6" name="FTTH_XGPON_100" totalsRowFunction="sum" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="FTTC_GPON_100" totalsRowFunction="sum" totalsRowDxfId="7"/>
-    <tableColumn id="8" name="FTTB_XGPON_100" totalsRowFunction="sum" dataDxfId="113" totalsRowDxfId="6"/>
-    <tableColumn id="9" name="FTTB_DWDM_100" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="5"/>
-    <tableColumn id="10" name="FTTC_Hybridpon_25" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="FTTB_XGPON_50" totalsRowFunction="sum" totalsRowDxfId="14"/>
+    <tableColumn id="4" name="FTTB_DWDM_50" totalsRowFunction="sum" totalsRowDxfId="13"/>
+    <tableColumn id="5" name="FTTH_DWDM_100" totalsRowFunction="sum" totalsRowDxfId="12"/>
+    <tableColumn id="6" name="FTTH_XGPON_100" totalsRowFunction="sum" totalsRowDxfId="11"/>
+    <tableColumn id="7" name="FTTC_GPON_100" totalsRowFunction="sum" totalsRowDxfId="10"/>
+    <tableColumn id="8" name="FTTB_XGPON_100" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="9" name="FTTB_DWDM_100" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="10" name="FTTC_Hybridpon_25" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="11" name="FTTB_Hybridpon_50" totalsRowFunction="sum" totalsRowDxfId="3"/>
     <tableColumn id="12" name="FTTH_Hybridpon_100" totalsRowFunction="sum" totalsRowDxfId="2"/>
     <tableColumn id="13" name="FTTC_Hybridpon_100" totalsRowFunction="sum" totalsRowDxfId="1"/>
@@ -5855,44 +5855,44 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:W11" totalsRowCount="1">
   <autoFilter ref="B1:W10"/>
   <tableColumns count="22">
-    <tableColumn id="1" name="Component Name" dataDxfId="164" totalsRowDxfId="107"/>
-    <tableColumn id="2" name="Cost per Unit (OASE)" dataDxfId="163" totalsRowDxfId="106"/>
-    <tableColumn id="3" name="Quantity" dataDxfId="162" totalsRowDxfId="105"/>
-    <tableColumn id="4" name="Floor Space per component" totalsRowDxfId="104"/>
-    <tableColumn id="5" name="Total Floor Space" totalsRowDxfId="103">
+    <tableColumn id="1" name="Component Name" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="2" name="Cost per Unit (OASE)" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="3" name="Quantity" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="4" name="Floor Space per component" totalsRowDxfId="155"/>
+    <tableColumn id="5" name="Total Floor Space" totalsRowDxfId="154">
       <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rent per sqm per year" totalsRowDxfId="102"/>
-    <tableColumn id="7" name="Total Rent cost per year" totalsRowFunction="sum" totalsRowDxfId="101">
+    <tableColumn id="6" name="Rent per sqm per year" totalsRowDxfId="153"/>
+    <tableColumn id="7" name="Total Rent cost per year" totalsRowFunction="sum" totalsRowDxfId="152">
       <calculatedColumnFormula>G2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Installation Time in hours" totalsRowDxfId="100"/>
-    <tableColumn id="9" name="MTTR" totalsRowDxfId="99"/>
-    <tableColumn id="10" name="FIT" totalsRowDxfId="98"/>
-    <tableColumn id="11" name="Energy consumption in W" totalsRowDxfId="97"/>
-    <tableColumn id="12" name="Yearly Energy Consumption in kWh" totalsRowDxfId="96">
+    <tableColumn id="8" name="Installation Time in hours" totalsRowDxfId="151"/>
+    <tableColumn id="9" name="MTTR" totalsRowDxfId="150"/>
+    <tableColumn id="10" name="FIT" totalsRowDxfId="149"/>
+    <tableColumn id="11" name="Energy consumption in W" totalsRowDxfId="148"/>
+    <tableColumn id="12" name="Yearly Energy Consumption in kWh" totalsRowDxfId="147">
       <calculatedColumnFormula>Table1[[#This Row],[Energy consumption in W]]*24*365/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="CU/kWh" totalsRowDxfId="95">
+    <tableColumn id="13" name="CU/kWh" totalsRowDxfId="146">
       <calculatedColumnFormula>0.3048/50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="94">
+    <tableColumn id="14" name="Energy Cost per year in CU" totalsRowFunction="sum" totalsRowDxfId="145">
       <calculatedColumnFormula>Table1[[#This Row],[Yearly Energy Consumption in kWh]]*Table1[[#This Row],[CU/kWh]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Mean dist in km from CO" totalsRowDxfId="93"/>
-    <tableColumn id="16" name="Avg Travel Speed" totalsRowDxfId="92"/>
-    <tableColumn id="17" name="Failures per year" totalsRowDxfId="91">
+    <tableColumn id="15" name="Mean dist in km from CO" totalsRowDxfId="144"/>
+    <tableColumn id="16" name="Avg Travel Speed" totalsRowDxfId="143"/>
+    <tableColumn id="17" name="Failures per year" totalsRowDxfId="142">
       <calculatedColumnFormula>Table1[[#This Row],[Quantity]]*Table1[[#This Row],[FIT]]*24*365/1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Twice Travel Time" totalsRowDxfId="90">
+    <tableColumn id="18" name="Twice Travel Time" totalsRowDxfId="141">
       <calculatedColumnFormula>2*Table1[[#This Row],[Mean dist in km from CO]]/Table1[[#This Row],[Avg Travel Speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Total Time to Repair(h)" totalsRowDxfId="89">
+    <tableColumn id="19" name="Total Time to Repair(h)" totalsRowDxfId="140">
       <calculatedColumnFormula>Table1[[#This Row],[MTTR]]+Table1[[#This Row],[Twice Travel Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="No. Of technicians" totalsRowDxfId="88"/>
-    <tableColumn id="21" name="Cost per hour" totalsRowDxfId="87"/>
-    <tableColumn id="22" name="FM Cost" totalsRowFunction="custom" totalsRowDxfId="86">
+    <tableColumn id="20" name="No. Of technicians" totalsRowDxfId="139"/>
+    <tableColumn id="21" name="Cost per hour" totalsRowDxfId="138"/>
+    <tableColumn id="22" name="FM Cost" totalsRowFunction="custom" totalsRowDxfId="137">
       <calculatedColumnFormula>Table1[[#This Row],[Cost per hour]]*Table1[[#This Row],[No. Of technicians]]*Table1[[#This Row],[Total Time to Repair(h)]]*Table1[[#This Row],[Failures per year]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[FM Cost])</totalsRowFormula>
     </tableColumn>
@@ -5906,9 +5906,9 @@
   <autoFilter ref="A1:W10"/>
   <tableColumns count="23">
     <tableColumn id="1" name="Position of component"/>
-    <tableColumn id="2" name="Component Name" dataDxfId="161"/>
+    <tableColumn id="2" name="Component Name" dataDxfId="136"/>
     <tableColumn id="3" name="Cost per Unit (OASE)"/>
-    <tableColumn id="4" name="Quantity" dataDxfId="160"/>
+    <tableColumn id="4" name="Quantity" dataDxfId="135"/>
     <tableColumn id="5" name="Floor Space per component"/>
     <tableColumn id="6" name="Total Floor Space"/>
     <tableColumn id="7" name="Rent per sqm per year"/>
@@ -5955,9 +5955,9 @@
   <autoFilter ref="A1:AA10"/>
   <tableColumns count="27">
     <tableColumn id="1" name="Position of component"/>
-    <tableColumn id="2" name="Component Name" dataDxfId="159"/>
+    <tableColumn id="2" name="Component Name" dataDxfId="134"/>
     <tableColumn id="3" name="Cost per Unit (OASE)"/>
-    <tableColumn id="4" name="Quantity" dataDxfId="158"/>
+    <tableColumn id="4" name="Quantity" dataDxfId="133"/>
     <tableColumn id="5" name="Floor Space per component"/>
     <tableColumn id="6" name="Total Floor Space">
       <calculatedColumnFormula>Table36[[#This Row],[Floor Space per component]]*Table36[[#This Row],[Quantity]]</calculatedColumnFormula>
@@ -6014,15 +6014,15 @@
   <autoFilter ref="A1:AA10"/>
   <tableColumns count="27">
     <tableColumn id="1" name="Position of component"/>
-    <tableColumn id="2" name="Component Name" dataDxfId="157" totalsRowDxfId="85"/>
-    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="156"/>
-    <tableColumn id="4" name="Quantity" dataDxfId="155"/>
+    <tableColumn id="2" name="Component Name" dataDxfId="132" totalsRowDxfId="131"/>
+    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="130"/>
+    <tableColumn id="4" name="Quantity" dataDxfId="129"/>
     <tableColumn id="24" name="Floor Space per component"/>
     <tableColumn id="25" name="Total Floor Space">
       <calculatedColumnFormula>Table27[[#This Row],[Floor Space per component]]*Table27[[#This Row],[Quantity]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="26" name="Rent per sqm per year"/>
-    <tableColumn id="27" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="84" dataCellStyle="Good">
+    <tableColumn id="27" name="Total Rent cost per year" totalsRowFunction="custom" totalsRowDxfId="128" dataCellStyle="Good">
       <calculatedColumnFormula>Table27[[#This Row],[Rent per sqm per year]]*Table27[[#This Row],[Total Floor Space]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table27[Total Rent cost per year])</totalsRowFormula>
     </tableColumn>
@@ -6036,7 +6036,7 @@
     <tableColumn id="10" name="CU/kWh">
       <calculatedColumnFormula>0.3048/50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Energy Cost per year in CU" totalsRowFunction="custom" totalsRowDxfId="83" dataCellStyle="Good">
+    <tableColumn id="11" name="Energy Cost per year in CU" totalsRowFunction="custom" totalsRowDxfId="127" dataCellStyle="Good">
       <calculatedColumnFormula>Table27[[#This Row],[Yearly Energy Consumption in kWh]]*Table27[[#This Row],[CU/kWh]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table27[Energy Cost per year in CU])</totalsRowFormula>
     </tableColumn>
@@ -6055,7 +6055,7 @@
     <tableColumn id="18" name="Cost per hour">
       <calculatedColumnFormula>190/50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="FM Cost" totalsRowFunction="custom" totalsRowDxfId="82" dataCellStyle="Good">
+    <tableColumn id="19" name="FM Cost" totalsRowFunction="custom" totalsRowDxfId="126" dataCellStyle="Good">
       <calculatedColumnFormula>Table27[[#This Row],[Cost per hour]]*Table27[[#This Row],[Total Time to Repair(h)]]*Table27[[#This Row],[Failures per year]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table27[FM Cost])+L20</totalsRowFormula>
     </tableColumn>
@@ -6089,8 +6089,8 @@
   <tableColumns count="27">
     <tableColumn id="1" name="Position of component"/>
     <tableColumn id="2" name="Component Name"/>
-    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="154"/>
-    <tableColumn id="4" name="Quantity" dataDxfId="153"/>
+    <tableColumn id="3" name="Cost per Unit (OASE)" dataDxfId="125"/>
+    <tableColumn id="4" name="Quantity" dataDxfId="124"/>
     <tableColumn id="5" name="Floor Space per component"/>
     <tableColumn id="6" name="Total Floor Space">
       <calculatedColumnFormula>Table38[[#This Row],[Floor Space per component]]*Table38[[#This Row],[Quantity]]</calculatedColumnFormula>
@@ -6442,7 +6442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -11783,8 +11783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D27:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12122,80 +12122,148 @@
         <v>50088.476920599649</v>
       </c>
     </row>
-    <row r="48" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="13:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J41" s="11">
+        <f>SUM(Table22[FTTC_GPON_25])</f>
+        <v>19283.042118970367</v>
+      </c>
+    </row>
+    <row r="42" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J42" s="11">
+        <f>SUBTOTAL(109,Table22[FTTB_XGPON_50])</f>
+        <v>43709.823692218881</v>
+      </c>
+    </row>
+    <row r="43" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J43" s="11">
+        <f>SUBTOTAL(109,Table22[FTTB_DWDM_50])</f>
+        <v>44248.4220525376</v>
+      </c>
+    </row>
+    <row r="44" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J44" s="11">
+        <f>SUBTOTAL(109,Table22[FTTH_DWDM_100])</f>
+        <v>10540.776519765759</v>
+      </c>
+    </row>
+    <row r="45" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J45" s="11">
+        <f>SUBTOTAL(109,Table22[FTTH_XGPON_100])</f>
+        <v>11938.918689039821</v>
+      </c>
+    </row>
+    <row r="46" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="11">
+        <f>SUBTOTAL(109,Table22[FTTC_GPON_100])</f>
+        <v>50983.71612182937</v>
+      </c>
+    </row>
+    <row r="47" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="J47" s="29">
+        <f>SUBTOTAL(109,Table22[FTTB_XGPON_100])</f>
+        <v>47726.863400003029</v>
+      </c>
+    </row>
+    <row r="48" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J48" s="29">
+        <f>SUBTOTAL(109,Table22[FTTB_DWDM_100])</f>
+        <v>48220.289169209609</v>
+      </c>
+    </row>
+    <row r="49" spans="10:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J49" s="29">
+        <f>SUBTOTAL(109,Table22[FTTC_Hybridpon_25])</f>
+        <v>37682.867713520049</v>
+      </c>
       <c r="M49" s="11">
         <f>SUM(Table22[FTTC_GPON_25])</f>
         <v>19283.042118970367</v>
       </c>
     </row>
-    <row r="50" spans="13:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="10:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J50" s="11">
+        <f>SUBTOTAL(109,Table22[FTTB_Hybridpon_50])</f>
+        <v>44827.8721002112</v>
+      </c>
       <c r="M50" s="11">
         <f>SUBTOTAL(109,Table22[FTTB_XGPON_50])</f>
         <v>43709.823692218881</v>
       </c>
     </row>
-    <row r="51" spans="13:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="10:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J51" s="11">
+        <f>SUBTOTAL(109,Table22[FTTH_Hybridpon_100])</f>
+        <v>12139.814930199653</v>
+      </c>
       <c r="M51" s="11">
         <f>SUBTOTAL(109,Table22[FTTB_DWDM_50])</f>
         <v>44248.4220525376</v>
       </c>
     </row>
-    <row r="52" spans="13:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="10:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J52" s="11">
+        <f>SUBTOTAL(109,Table22[FTTC_Hybridpon_100])</f>
+        <v>47419.574760442287</v>
+      </c>
       <c r="M52" s="11">
         <f>SUBTOTAL(109,Table22[FTTH_DWDM_100])</f>
         <v>10540.776519765759</v>
       </c>
     </row>
-    <row r="53" spans="13:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="10:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J53" s="14">
+        <f>SUBTOTAL(109,Table22[FTTB_Hybridpon_100])</f>
+        <v>50088.476920599649</v>
+      </c>
       <c r="M53" s="11">
         <f>SUBTOTAL(109,Table22[FTTH_XGPON_100])</f>
         <v>11938.918689039821</v>
       </c>
     </row>
-    <row r="54" spans="13:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M54" s="11">
         <f>SUBTOTAL(109,Table22[FTTC_GPON_100])</f>
         <v>50983.71612182937</v>
       </c>
     </row>
-    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M55" s="29">
         <f>SUBTOTAL(109,Table22[FTTB_XGPON_100])</f>
         <v>47726.863400003029</v>
       </c>
     </row>
-    <row r="56" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M56" s="29">
         <f>SUBTOTAL(109,Table22[FTTB_DWDM_100])</f>
         <v>48220.289169209609</v>
       </c>
     </row>
-    <row r="57" spans="13:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="10:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M57" s="29">
         <f>SUBTOTAL(109,Table22[FTTC_Hybridpon_25])</f>
         <v>37682.867713520049</v>
       </c>
     </row>
-    <row r="58" spans="13:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="10:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M58" s="11">
         <f>SUBTOTAL(109,Table22[FTTB_Hybridpon_50])</f>
         <v>44827.8721002112</v>
       </c>
     </row>
-    <row r="59" spans="13:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="10:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M59" s="11">
         <f>SUBTOTAL(109,Table22[FTTH_Hybridpon_100])</f>
         <v>12139.814930199653</v>
       </c>
     </row>
-    <row r="60" spans="13:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="10:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M60" s="11">
         <f>SUBTOTAL(109,Table22[FTTC_Hybridpon_100])</f>
         <v>47419.574760442287</v>
       </c>
     </row>
-    <row r="61" spans="13:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M61" s="14">
         <f>SUBTOTAL(109,Table22[FTTB_Hybridpon_100])</f>
         <v>50088.476920599649</v>
@@ -12203,7 +12271,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LUnrestricted</oddFooter>
   </headerFooter>

--- a/tumlknexpectimax/excel_data/opex_calc.xlsx
+++ b/tumlknexpectimax/excel_data/opex_calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="165" windowWidth="27795" windowHeight="14055" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="165" windowWidth="27795" windowHeight="14055" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="FTTC_GPON_25_PIVOT" sheetId="4" r:id="rId1"/>
@@ -3205,7 +3205,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3233,11 +3233,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="41836032"/>
-        <c:axId val="80007104"/>
+        <c:axId val="96884992"/>
+        <c:axId val="163586048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41836032"/>
+        <c:axId val="96884992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3246,7 +3246,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80007104"/>
+        <c:crossAx val="163586048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3254,7 +3254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80007104"/>
+        <c:axId val="163586048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3265,14 +3265,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41836032"/>
+        <c:crossAx val="96884992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3290,7 +3289,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3301,7 +3300,31 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Per</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Year OPEX for different Technologies</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3943,11 +3966,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="155347456"/>
-        <c:axId val="62621376"/>
+        <c:axId val="144598528"/>
+        <c:axId val="144600448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155347456"/>
+        <c:axId val="144598528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3973,7 +3996,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
                   <a:t>Technology</a:t>
                 </a:r>
               </a:p>
@@ -4011,7 +4034,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4023,10 +4046,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62621376"/>
+        <c:crossAx val="144600448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4034,7 +4057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62621376"/>
+        <c:axId val="144600448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4088,7 +4111,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
                   <a:t>Cost Units</a:t>
                 </a:r>
               </a:p>
@@ -4132,10 +4155,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155347456"/>
+        <c:crossAx val="144598528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4175,7 +4198,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4205,7 +4228,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4781,7 +4804,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4806,23 +4829,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>843915</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>241935</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2AF6944-48DA-45D6-93A4-52064D7B7BB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2AF6944-48DA-45D6-93A4-52064D7B7BB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11783,8 +11806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D27:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
